--- a/output/snacompare_summary/snacompare_raw_totpop.xlsx
+++ b/output/snacompare_summary/snacompare_raw_totpop.xlsx
@@ -14,7 +14,988 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="981">
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>series nº 300 - SNA93</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 200 - SNA93</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>series nº 200 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 300 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 200 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>pre_wag</t>
+  </si>
+  <si>
+    <t>pre_ben</t>
+  </si>
+  <si>
+    <t>pre_cap</t>
+  </si>
+  <si>
+    <t>pre_mix</t>
+  </si>
+  <si>
+    <t>pre_pre</t>
+  </si>
+  <si>
+    <t>pre_imp</t>
+  </si>
+  <si>
+    <t>pre_mir</t>
+  </si>
+  <si>
+    <t>pre_kap</t>
+  </si>
+  <si>
+    <t>pre_tot</t>
+  </si>
+  <si>
+    <t>pos_wag</t>
+  </si>
+  <si>
+    <t>pos_ben</t>
+  </si>
+  <si>
+    <t>pos_cap</t>
+  </si>
+  <si>
+    <t>pos_mix</t>
+  </si>
+  <si>
+    <t>pos_pre</t>
+  </si>
+  <si>
+    <t>pos_imp</t>
+  </si>
+  <si>
+    <t>pos_mir</t>
+  </si>
+  <si>
+    <t>pos_kap</t>
+  </si>
+  <si>
+    <t>pos_tot</t>
+  </si>
+  <si>
+    <t>pre_wag_nac</t>
+  </si>
+  <si>
+    <t>pre_ssc_nac</t>
+  </si>
+  <si>
+    <t>pre_ben_nac</t>
+  </si>
+  <si>
+    <t>pre_mix_nac</t>
+  </si>
+  <si>
+    <t>pre_cap_nac</t>
+  </si>
+  <si>
+    <t>pre_cap_nac_u</t>
+  </si>
+  <si>
+    <t>pre_imp_nac</t>
+  </si>
+  <si>
+    <t>pre_kap_nac</t>
+  </si>
+  <si>
+    <t>pre_mir_nac</t>
+  </si>
+  <si>
+    <t>pre_tax_nac</t>
+  </si>
+  <si>
+    <t>bpi_hh</t>
+  </si>
+  <si>
+    <t>pre_gni_nac</t>
+  </si>
+  <si>
+    <t>pre_dis_nac</t>
+  </si>
+  <si>
+    <t>bpi_corp</t>
+  </si>
+  <si>
+    <t>bpi_gg</t>
+  </si>
+  <si>
+    <t>pre_P31G_nac</t>
+  </si>
+  <si>
+    <t>pre_P32G_nac</t>
+  </si>
+  <si>
+    <t>pre_D2G_nac</t>
+  </si>
+  <si>
+    <t>pre_D3G_nac</t>
+  </si>
+  <si>
+    <t>pre_D31G_nac</t>
+  </si>
+  <si>
+    <t>svy_to_ni</t>
+  </si>
+  <si>
+    <t>svy_to_ni_wid_pre</t>
+  </si>
+  <si>
+    <t>svy_to_ni_wid_pos</t>
+  </si>
+  <si>
+    <t>TOT_B5g_wid</t>
+  </si>
+  <si>
+    <t>wid_scal_ni</t>
+  </si>
+  <si>
+    <t>extsna_pre_wag</t>
+  </si>
+  <si>
+    <t>extsna_pre_ben</t>
+  </si>
+  <si>
+    <t>extsna_pre_cap</t>
+  </si>
+  <si>
+    <t>extsna_pre_mix</t>
+  </si>
+  <si>
+    <t>extsna_pre_imp</t>
+  </si>
+  <si>
+    <t>extsna_pre_mir</t>
+  </si>
+  <si>
+    <t>extsna_pre_kap</t>
+  </si>
+  <si>
+    <t>extsna_pre_tot</t>
+  </si>
+  <si>
+    <t>extsna_bpi_gg</t>
+  </si>
+  <si>
+    <t>extsna_bpi_hh</t>
+  </si>
+  <si>
+    <t>extsna_bpi_corp</t>
+  </si>
+  <si>
+    <t>extrap_sca</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>series nº 300 - SNA93</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>series nº 100 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 200 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 300 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 200 - SNA93</t>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>series nº 1000 - SNA08</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>pre_wag</t>
+  </si>
+  <si>
+    <t>pre_ben</t>
+  </si>
+  <si>
+    <t>pre_cap</t>
+  </si>
+  <si>
+    <t>pre_mix</t>
+  </si>
+  <si>
+    <t>pre_pre</t>
+  </si>
+  <si>
+    <t>pre_imp</t>
+  </si>
+  <si>
+    <t>pre_mir</t>
+  </si>
+  <si>
+    <t>pre_kap</t>
+  </si>
+  <si>
+    <t>pre_tot</t>
+  </si>
+  <si>
+    <t>pos_wag</t>
+  </si>
+  <si>
+    <t>pos_ben</t>
+  </si>
+  <si>
+    <t>pos_cap</t>
+  </si>
+  <si>
+    <t>pos_mix</t>
+  </si>
+  <si>
+    <t>pos_pre</t>
+  </si>
+  <si>
+    <t>pos_imp</t>
+  </si>
+  <si>
+    <t>pos_mir</t>
+  </si>
+  <si>
+    <t>pos_kap</t>
+  </si>
+  <si>
+    <t>pos_tot</t>
+  </si>
+  <si>
+    <t>pre_wag_nac</t>
+  </si>
+  <si>
+    <t>pre_ssc_nac</t>
+  </si>
+  <si>
+    <t>pre_ben_nac</t>
+  </si>
+  <si>
+    <t>pre_mix_nac</t>
+  </si>
+  <si>
+    <t>pre_cap_nac</t>
+  </si>
+  <si>
+    <t>pre_cap_nac_u</t>
+  </si>
+  <si>
+    <t>pre_imp_nac</t>
+  </si>
+  <si>
+    <t>pre_kap_nac</t>
+  </si>
+  <si>
+    <t>pre_mir_nac</t>
+  </si>
+  <si>
+    <t>pre_tax_nac</t>
+  </si>
+  <si>
+    <t>bpi_hh</t>
+  </si>
+  <si>
+    <t>pre_gni_nac</t>
+  </si>
+  <si>
+    <t>pre_dis_nac</t>
+  </si>
+  <si>
+    <t>bpi_corp</t>
+  </si>
+  <si>
+    <t>bpi_gg</t>
+  </si>
+  <si>
+    <t>pre_P31G_nac</t>
+  </si>
+  <si>
+    <t>pre_P32G_nac</t>
+  </si>
+  <si>
+    <t>pre_D2G_nac</t>
+  </si>
+  <si>
+    <t>pre_D3G_nac</t>
+  </si>
+  <si>
+    <t>pre_D31G_nac</t>
+  </si>
+  <si>
+    <t>svy_to_ni</t>
+  </si>
+  <si>
+    <t>svy_to_ni_wid_pre</t>
+  </si>
+  <si>
+    <t>svy_to_ni_wid_pos</t>
+  </si>
+  <si>
+    <t>TOT_B5g_wid</t>
+  </si>
+  <si>
+    <t>wid_scal_ni</t>
+  </si>
+  <si>
+    <t>extsna_pre_wag</t>
+  </si>
+  <si>
+    <t>extsna_pre_ben</t>
+  </si>
+  <si>
+    <t>extsna_pre_cap</t>
+  </si>
+  <si>
+    <t>extsna_pre_mix</t>
+  </si>
+  <si>
+    <t>extsna_pre_imp</t>
+  </si>
+  <si>
+    <t>extsna_pre_mir</t>
+  </si>
+  <si>
+    <t>extsna_pre_kap</t>
+  </si>
+  <si>
+    <t>extsna_pre_tot</t>
+  </si>
+  <si>
+    <t>extsna_bpi_gg</t>
+  </si>
+  <si>
+    <t>extsna_bpi_hh</t>
+  </si>
+  <si>
+    <t>extsna_bpi_corp</t>
+  </si>
+  <si>
+    <t>extrap_sca</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
   <si>
     <t>country</t>
   </si>
@@ -2024,189 +3005,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>654</v>
       </c>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>666</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>667</v>
       </c>
       <c r="D1" t="s">
-        <v>436</v>
+        <v>763</v>
       </c>
       <c r="E1" t="s">
-        <v>437</v>
+        <v>764</v>
       </c>
       <c r="F1" t="s">
-        <v>438</v>
+        <v>765</v>
       </c>
       <c r="G1" t="s">
-        <v>439</v>
+        <v>766</v>
       </c>
       <c r="H1" t="s">
-        <v>440</v>
+        <v>767</v>
       </c>
       <c r="I1" t="s">
-        <v>441</v>
+        <v>768</v>
       </c>
       <c r="J1" t="s">
-        <v>442</v>
+        <v>769</v>
       </c>
       <c r="K1" t="s">
-        <v>443</v>
+        <v>770</v>
       </c>
       <c r="L1" t="s">
-        <v>444</v>
+        <v>771</v>
       </c>
       <c r="M1" t="s">
-        <v>445</v>
+        <v>772</v>
       </c>
       <c r="N1" t="s">
-        <v>446</v>
+        <v>773</v>
       </c>
       <c r="O1" t="s">
-        <v>447</v>
+        <v>774</v>
       </c>
       <c r="P1" t="s">
-        <v>448</v>
+        <v>775</v>
       </c>
       <c r="Q1" t="s">
-        <v>449</v>
+        <v>776</v>
       </c>
       <c r="R1" t="s">
-        <v>450</v>
+        <v>777</v>
       </c>
       <c r="S1" t="s">
-        <v>451</v>
+        <v>778</v>
       </c>
       <c r="T1" t="s">
-        <v>452</v>
+        <v>779</v>
       </c>
       <c r="U1" t="s">
-        <v>453</v>
+        <v>780</v>
       </c>
       <c r="V1" t="s">
-        <v>454</v>
+        <v>781</v>
       </c>
       <c r="W1" t="s">
-        <v>455</v>
+        <v>782</v>
       </c>
       <c r="X1" t="s">
-        <v>456</v>
+        <v>783</v>
       </c>
       <c r="Y1" t="s">
-        <v>457</v>
+        <v>784</v>
       </c>
       <c r="Z1" t="s">
-        <v>458</v>
+        <v>785</v>
       </c>
       <c r="AA1" t="s">
-        <v>459</v>
+        <v>786</v>
       </c>
       <c r="AB1" t="s">
-        <v>460</v>
+        <v>787</v>
       </c>
       <c r="AC1" t="s">
-        <v>461</v>
+        <v>788</v>
       </c>
       <c r="AD1" t="s">
-        <v>462</v>
+        <v>789</v>
       </c>
       <c r="AE1" t="s">
-        <v>463</v>
+        <v>790</v>
       </c>
       <c r="AF1" t="s">
-        <v>464</v>
+        <v>791</v>
       </c>
       <c r="AG1" t="s">
-        <v>465</v>
+        <v>792</v>
       </c>
       <c r="AH1" t="s">
-        <v>466</v>
+        <v>793</v>
       </c>
       <c r="AI1" t="s">
-        <v>467</v>
+        <v>794</v>
       </c>
       <c r="AJ1" t="s">
-        <v>468</v>
+        <v>795</v>
       </c>
       <c r="AK1" t="s">
-        <v>469</v>
+        <v>796</v>
       </c>
       <c r="AL1" t="s">
-        <v>470</v>
+        <v>797</v>
       </c>
       <c r="AM1" t="s">
-        <v>471</v>
+        <v>798</v>
       </c>
       <c r="AN1" t="s">
-        <v>472</v>
+        <v>799</v>
       </c>
       <c r="AO1" t="s">
-        <v>473</v>
+        <v>800</v>
       </c>
       <c r="AP1" t="s">
-        <v>474</v>
+        <v>801</v>
       </c>
       <c r="AQ1" t="s">
-        <v>475</v>
+        <v>802</v>
       </c>
       <c r="AR1" t="s">
-        <v>476</v>
+        <v>803</v>
       </c>
       <c r="AS1" t="s">
-        <v>477</v>
+        <v>804</v>
       </c>
       <c r="AT1" t="s">
-        <v>478</v>
+        <v>805</v>
       </c>
       <c r="AU1" t="s">
-        <v>479</v>
+        <v>806</v>
       </c>
       <c r="AV1" t="s">
-        <v>480</v>
+        <v>807</v>
       </c>
       <c r="AW1" t="s">
-        <v>481</v>
+        <v>808</v>
       </c>
       <c r="AX1" t="s">
-        <v>482</v>
+        <v>809</v>
       </c>
       <c r="AY1" t="s">
-        <v>483</v>
+        <v>810</v>
       </c>
       <c r="AZ1" t="s">
-        <v>484</v>
+        <v>811</v>
       </c>
       <c r="BA1" t="s">
-        <v>485</v>
+        <v>812</v>
       </c>
       <c r="BB1" t="s">
-        <v>486</v>
+        <v>813</v>
       </c>
       <c r="BC1" t="s">
-        <v>487</v>
+        <v>814</v>
       </c>
       <c r="BD1" t="s">
-        <v>488</v>
+        <v>815</v>
       </c>
       <c r="BE1" t="s">
-        <v>489</v>
+        <v>816</v>
       </c>
       <c r="BF1" t="s">
-        <v>490</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D2">
         <v>77.910781860351563</v>
@@ -2344,13 +3325,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D3">
         <v>77.910781860351563</v>
@@ -2492,13 +3473,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B4">
         <v>2002</v>
       </c>
       <c r="C4" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D4">
         <v>74.896766662597656</v>
@@ -2664,13 +3645,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B5">
         <v>2003</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D5">
         <v>74.966567993164063</v>
@@ -2836,13 +3817,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B6">
         <v>2004</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D6">
         <v>75.890884399414063</v>
@@ -3008,13 +3989,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
       <c r="C7" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D7">
         <v>78.350982666015625</v>
@@ -3180,13 +4161,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B8">
         <v>2006</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D8">
         <v>77.910781860351563</v>
@@ -3328,13 +4309,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B9">
         <v>2007</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D9">
         <v>77.910781860351563</v>
@@ -3476,13 +4457,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B10">
         <v>2008</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D10">
         <v>78.331573486328125</v>
@@ -3648,13 +4629,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D11">
         <v>78.044914245605469</v>
@@ -3820,13 +4801,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B12">
         <v>2010</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D12">
         <v>77.562141418457031</v>
@@ -3992,13 +4973,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D13">
         <v>77.970870971679688</v>
@@ -4164,13 +5145,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B14">
         <v>2012</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D14">
         <v>79.448699951171875</v>
@@ -4336,13 +5317,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B15">
         <v>2013</v>
       </c>
       <c r="C15" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D15">
         <v>79.185958862304688</v>
@@ -4508,13 +5489,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B16">
         <v>2014</v>
       </c>
       <c r="C16" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D16">
         <v>82.067207336425781</v>
@@ -4680,13 +5661,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D17">
         <v>79.753898620605469</v>
@@ -4852,13 +5833,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B18">
         <v>2016</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>668</v>
       </c>
       <c r="D18">
         <v>80.596000671386719</v>
@@ -5024,13 +6005,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B19">
         <v>2017</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>669</v>
       </c>
       <c r="D19">
         <v>77.590682983398438</v>
@@ -5178,13 +6159,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B20">
         <v>2018</v>
       </c>
       <c r="C20" t="s">
-        <v>342</v>
+        <v>669</v>
       </c>
       <c r="D20">
         <v>76.556411743164063</v>
@@ -5332,13 +6313,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B21">
         <v>2019</v>
       </c>
       <c r="C21" t="s">
-        <v>342</v>
+        <v>669</v>
       </c>
       <c r="D21">
         <v>78.222114562988281</v>
@@ -5486,13 +6467,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B22">
         <v>2020</v>
       </c>
       <c r="C22" t="s">
-        <v>342</v>
+        <v>669</v>
       </c>
       <c r="D22">
         <v>67.559135437011719</v>
@@ -5640,13 +6621,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B23">
         <v>2021</v>
       </c>
       <c r="C23" t="s">
-        <v>342</v>
+        <v>669</v>
       </c>
       <c r="D23">
         <v>69.032875061035156</v>
@@ -5794,13 +6775,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B24">
         <v>2022</v>
       </c>
       <c r="C24" t="s">
-        <v>342</v>
+        <v>669</v>
       </c>
       <c r="D24">
         <v>83.624465942382813</v>
@@ -5948,13 +6929,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B25">
         <v>2023</v>
       </c>
       <c r="C25" t="s">
-        <v>342</v>
+        <v>669</v>
       </c>
       <c r="D25">
         <v>88.5634765625</v>
@@ -6102,13 +7083,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B26">
         <v>2000</v>
       </c>
       <c r="C26" t="s">
-        <v>343</v>
+        <v>670</v>
       </c>
       <c r="D26">
         <v>63.507678985595703</v>
@@ -6214,13 +7195,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B27">
         <v>2001</v>
       </c>
       <c r="C27" t="s">
-        <v>344</v>
+        <v>671</v>
       </c>
       <c r="D27">
         <v>63.507678985595703</v>
@@ -6326,13 +7307,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B28">
         <v>2002</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>672</v>
       </c>
       <c r="D28">
         <v>63.507678985595703</v>
@@ -6438,13 +7419,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B29">
         <v>2003</v>
       </c>
       <c r="C29" t="s">
-        <v>346</v>
+        <v>673</v>
       </c>
       <c r="D29">
         <v>63.507678985595703</v>
@@ -6550,13 +7531,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B30">
         <v>2004</v>
       </c>
       <c r="C30" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D30">
         <v>66.837867736816406</v>
@@ -6690,13 +7671,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B31">
         <v>2005</v>
       </c>
       <c r="C31" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D31">
         <v>67.619316101074219</v>
@@ -6830,13 +7811,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B32">
         <v>2006</v>
       </c>
       <c r="C32" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D32">
         <v>67.213462829589844</v>
@@ -6970,13 +7951,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B33">
         <v>2007</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D33">
         <v>66.452812194824219</v>
@@ -7110,13 +8091,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B34">
         <v>2008</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D34">
         <v>63.865222930908203</v>
@@ -7250,13 +8231,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B35">
         <v>2009</v>
       </c>
       <c r="C35" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D35">
         <v>60.792781829833984</v>
@@ -7390,13 +8371,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B36">
         <v>2010</v>
       </c>
       <c r="C36" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D36">
         <v>63.594303131103516</v>
@@ -7530,13 +8511,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B37">
         <v>2011</v>
       </c>
       <c r="C37" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D37">
         <v>61.935272216796875</v>
@@ -7670,13 +8651,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B38">
         <v>2012</v>
       </c>
       <c r="C38" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D38">
         <v>58.21099853515625</v>
@@ -7810,13 +8791,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B39">
         <v>2013</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D39">
         <v>58.554744720458984</v>
@@ -7950,13 +8931,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B40">
         <v>2014</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>674</v>
       </c>
       <c r="D40">
         <v>58.554744720458984</v>
@@ -8070,13 +9051,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B41">
         <v>2015</v>
       </c>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>675</v>
       </c>
       <c r="D41">
         <v>58.554744720458984</v>
@@ -8182,13 +9163,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B42">
         <v>2016</v>
       </c>
       <c r="C42" t="s">
-        <v>349</v>
+        <v>676</v>
       </c>
       <c r="D42">
         <v>58.554744720458984</v>
@@ -8294,13 +9275,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B43">
         <v>2017</v>
       </c>
       <c r="C43" t="s">
-        <v>350</v>
+        <v>677</v>
       </c>
       <c r="D43">
         <v>58.554744720458984</v>
@@ -8414,13 +9395,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B44">
         <v>2018</v>
       </c>
       <c r="C44" t="s">
-        <v>351</v>
+        <v>678</v>
       </c>
       <c r="D44">
         <v>58.554744720458984</v>
@@ -8534,13 +9515,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B45">
         <v>2019</v>
       </c>
       <c r="C45" t="s">
-        <v>352</v>
+        <v>679</v>
       </c>
       <c r="D45">
         <v>58.554744720458984</v>
@@ -8654,13 +9635,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B46">
         <v>2020</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>680</v>
       </c>
       <c r="D46">
         <v>58.554744720458984</v>
@@ -8774,13 +9755,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B47">
         <v>2021</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>681</v>
       </c>
       <c r="D47">
         <v>58.554744720458984</v>
@@ -8894,13 +9875,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B48">
         <v>2022</v>
       </c>
       <c r="C48" t="s">
-        <v>355</v>
+        <v>682</v>
       </c>
       <c r="D48">
         <v>58.554744720458984</v>
@@ -9014,13 +9995,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="B49">
         <v>2023</v>
       </c>
       <c r="C49" t="s">
-        <v>356</v>
+        <v>683</v>
       </c>
       <c r="D49">
         <v>58.554744720458984</v>
@@ -9134,13 +10115,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B50">
         <v>2000</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>684</v>
       </c>
       <c r="D50">
         <v>103.16817474365234</v>
@@ -9254,13 +10235,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B51">
         <v>2001</v>
       </c>
       <c r="C51" t="s">
-        <v>358</v>
+        <v>685</v>
       </c>
       <c r="D51">
         <v>103.16817474365234</v>
@@ -9374,13 +10355,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B52">
         <v>2002</v>
       </c>
       <c r="C52" t="s">
-        <v>359</v>
+        <v>686</v>
       </c>
       <c r="D52">
         <v>103.16817474365234</v>
@@ -9494,13 +10475,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B53">
         <v>2003</v>
       </c>
       <c r="C53" t="s">
-        <v>360</v>
+        <v>687</v>
       </c>
       <c r="D53">
         <v>103.16817474365234</v>
@@ -9614,13 +10595,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B54">
         <v>2004</v>
       </c>
       <c r="C54" t="s">
-        <v>361</v>
+        <v>688</v>
       </c>
       <c r="D54">
         <v>103.16817474365234</v>
@@ -9734,13 +10715,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B55">
         <v>2005</v>
       </c>
       <c r="C55" t="s">
-        <v>362</v>
+        <v>689</v>
       </c>
       <c r="D55">
         <v>103.16817474365234</v>
@@ -9854,13 +10835,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B56">
         <v>2006</v>
       </c>
       <c r="C56" t="s">
-        <v>363</v>
+        <v>690</v>
       </c>
       <c r="D56">
         <v>103.16817474365234</v>
@@ -9974,13 +10955,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B57">
         <v>2007</v>
       </c>
       <c r="C57" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D57">
         <v>108.84059143066406</v>
@@ -10146,13 +11127,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B58">
         <v>2008</v>
       </c>
       <c r="C58" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D58">
         <v>108.44422149658203</v>
@@ -10314,13 +11295,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B59">
         <v>2009</v>
       </c>
       <c r="C59" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D59">
         <v>118.60659790039063</v>
@@ -10482,13 +11463,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B60">
         <v>2010</v>
       </c>
       <c r="C60" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D60">
         <v>109.92964172363281</v>
@@ -10650,13 +11631,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B61">
         <v>2011</v>
       </c>
       <c r="C61" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D61">
         <v>103.17209625244141</v>
@@ -10818,13 +11799,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B62">
         <v>2012</v>
       </c>
       <c r="C62" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D62">
         <v>109.32874298095703</v>
@@ -10986,13 +11967,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B63">
         <v>2013</v>
       </c>
       <c r="C63" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D63">
         <v>110.40555572509766</v>
@@ -11154,13 +12135,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B64">
         <v>2014</v>
       </c>
       <c r="C64" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D64">
         <v>106.59972381591797</v>
@@ -11322,13 +12303,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B65">
         <v>2015</v>
       </c>
       <c r="C65" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D65">
         <v>107.19830322265625</v>
@@ -11490,13 +12471,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B66">
         <v>2016</v>
       </c>
       <c r="C66" t="s">
-        <v>364</v>
+        <v>691</v>
       </c>
       <c r="D66">
         <v>108.48361968994141</v>
@@ -11658,13 +12639,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B67">
         <v>2017</v>
       </c>
       <c r="C67" t="s">
-        <v>365</v>
+        <v>692</v>
       </c>
       <c r="D67">
         <v>103.56272888183594</v>
@@ -11812,13 +12793,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B68">
         <v>2018</v>
       </c>
       <c r="C68" t="s">
-        <v>365</v>
+        <v>692</v>
       </c>
       <c r="D68">
         <v>101.234375</v>
@@ -11966,13 +12947,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B69">
         <v>2019</v>
       </c>
       <c r="C69" t="s">
-        <v>365</v>
+        <v>692</v>
       </c>
       <c r="D69">
         <v>100.44290161132813</v>
@@ -12120,13 +13101,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B70">
         <v>2020</v>
       </c>
       <c r="C70" t="s">
-        <v>365</v>
+        <v>692</v>
       </c>
       <c r="D70">
         <v>82.097969055175781</v>
@@ -12274,13 +13255,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B71">
         <v>2021</v>
       </c>
       <c r="C71" t="s">
-        <v>365</v>
+        <v>692</v>
       </c>
       <c r="D71">
         <v>86.932258605957031</v>
@@ -12428,13 +13409,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B72">
         <v>2022</v>
       </c>
       <c r="C72" t="s">
-        <v>365</v>
+        <v>692</v>
       </c>
       <c r="D72">
         <v>91.915298461914063</v>
@@ -12582,13 +13563,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>330</v>
+        <v>657</v>
       </c>
       <c r="B73">
         <v>2023</v>
       </c>
       <c r="C73" t="s">
-        <v>365</v>
+        <v>692</v>
       </c>
       <c r="D73">
         <v>96.664375305175781</v>
@@ -12736,13 +13717,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B74">
         <v>2000</v>
       </c>
       <c r="C74" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D74">
         <v>85.666969299316406</v>
@@ -12864,13 +13845,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B75">
         <v>2001</v>
       </c>
       <c r="C75" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D75">
         <v>85.666969299316406</v>
@@ -12992,13 +13973,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B76">
         <v>2002</v>
       </c>
       <c r="C76" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D76">
         <v>85.666969299316406</v>
@@ -13120,13 +14101,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B77">
         <v>2003</v>
       </c>
       <c r="C77" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D77">
         <v>85.666969299316406</v>
@@ -13248,13 +14229,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B78">
         <v>2004</v>
       </c>
       <c r="C78" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D78">
         <v>85.666969299316406</v>
@@ -13376,13 +14357,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B79">
         <v>2005</v>
       </c>
       <c r="C79" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D79">
         <v>85.666969299316406</v>
@@ -13504,13 +14485,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B80">
         <v>2006</v>
       </c>
       <c r="C80" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D80">
         <v>85.666969299316406</v>
@@ -13620,13 +14601,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B81">
         <v>2007</v>
       </c>
       <c r="C81" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D81">
         <v>85.666969299316406</v>
@@ -13744,13 +14725,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B82">
         <v>2008</v>
       </c>
       <c r="C82" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D82">
         <v>85.666969299316406</v>
@@ -13868,13 +14849,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B83">
         <v>2009</v>
       </c>
       <c r="C83" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D83">
         <v>85.666969299316406</v>
@@ -13992,13 +14973,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B84">
         <v>2010</v>
       </c>
       <c r="C84" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D84">
         <v>85.666969299316406</v>
@@ -14116,13 +15097,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B85">
         <v>2011</v>
       </c>
       <c r="C85" t="s">
-        <v>366</v>
+        <v>693</v>
       </c>
       <c r="D85">
         <v>85.666969299316406</v>
@@ -14240,13 +15221,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B86">
         <v>2012</v>
       </c>
       <c r="C86" t="s">
-        <v>367</v>
+        <v>694</v>
       </c>
       <c r="D86">
         <v>80.92169189453125</v>
@@ -14390,13 +15371,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B87">
         <v>2013</v>
       </c>
       <c r="C87" t="s">
-        <v>368</v>
+        <v>695</v>
       </c>
       <c r="D87">
         <v>85.666969299316406</v>
@@ -14514,13 +15495,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B88">
         <v>2014</v>
       </c>
       <c r="C88" t="s">
-        <v>368</v>
+        <v>695</v>
       </c>
       <c r="D88">
         <v>85.666969299316406</v>
@@ -14638,13 +15619,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B89">
         <v>2015</v>
       </c>
       <c r="C89" t="s">
-        <v>368</v>
+        <v>695</v>
       </c>
       <c r="D89">
         <v>85.666969299316406</v>
@@ -14762,13 +15743,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B90">
         <v>2016</v>
       </c>
       <c r="C90" t="s">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="D90">
         <v>88.003005981445313</v>
@@ -14912,13 +15893,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B91">
         <v>2017</v>
       </c>
       <c r="C91" t="s">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="D91">
         <v>88.893211364746094</v>
@@ -15062,13 +16043,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B92">
         <v>2018</v>
       </c>
       <c r="C92" t="s">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="D92">
         <v>87.752304077148438</v>
@@ -15212,13 +16193,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B93">
         <v>2019</v>
       </c>
       <c r="C93" t="s">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="D93">
         <v>84.65826416015625</v>
@@ -15362,13 +16343,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B94">
         <v>2020</v>
       </c>
       <c r="C94" t="s">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="D94">
         <v>85.936622619628906</v>
@@ -15512,13 +16493,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B95">
         <v>2021</v>
       </c>
       <c r="C95" t="s">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="D95">
         <v>83.503662109375</v>
@@ -15662,13 +16643,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B96">
         <v>2022</v>
       </c>
       <c r="C96" t="s">
-        <v>370</v>
+        <v>697</v>
       </c>
       <c r="D96">
         <v>83.503662109375</v>
@@ -15782,13 +16763,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>331</v>
+        <v>658</v>
       </c>
       <c r="B97">
         <v>2023</v>
       </c>
       <c r="C97" t="s">
-        <v>371</v>
+        <v>698</v>
       </c>
       <c r="D97">
         <v>83.503662109375</v>
@@ -15902,13 +16883,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B98">
         <v>2000</v>
       </c>
       <c r="C98" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D98">
         <v>84.725067138671875</v>
@@ -16020,13 +17001,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B99">
         <v>2001</v>
       </c>
       <c r="C99" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D99">
         <v>90.297988891601563</v>
@@ -16148,13 +17129,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B100">
         <v>2002</v>
       </c>
       <c r="C100" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D100">
         <v>84.725067138671875</v>
@@ -16266,13 +17247,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B101">
         <v>2003</v>
       </c>
       <c r="C101" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D101">
         <v>88.232711791992188</v>
@@ -16394,13 +17375,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B102">
         <v>2004</v>
       </c>
       <c r="C102" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D102">
         <v>84.725067138671875</v>
@@ -16512,13 +17493,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B103">
         <v>2005</v>
       </c>
       <c r="C103" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D103">
         <v>86.561241149902344</v>
@@ -16640,13 +17621,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B104">
         <v>2006</v>
       </c>
       <c r="C104" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D104">
         <v>84.445571899414063</v>
@@ -16768,13 +17749,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B105">
         <v>2007</v>
       </c>
       <c r="C105" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D105">
         <v>87.504539489746094</v>
@@ -16896,13 +17877,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B106">
         <v>2008</v>
       </c>
       <c r="C106" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D106">
         <v>87.93609619140625</v>
@@ -17024,13 +18005,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B107">
         <v>2009</v>
       </c>
       <c r="C107" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D107">
         <v>91.534172058105469</v>
@@ -17152,13 +18133,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B108">
         <v>2010</v>
       </c>
       <c r="C108" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D108">
         <v>83.492057800292969</v>
@@ -17280,13 +18261,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B109">
         <v>2011</v>
       </c>
       <c r="C109" t="s">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="D109">
         <v>84.709579467773438</v>
@@ -17408,13 +18389,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B110">
         <v>2012</v>
       </c>
       <c r="C110" t="s">
-        <v>373</v>
+        <v>700</v>
       </c>
       <c r="D110">
         <v>88.235038757324219</v>
@@ -17580,13 +18561,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B111">
         <v>2013</v>
       </c>
       <c r="C111" t="s">
-        <v>373</v>
+        <v>700</v>
       </c>
       <c r="D111">
         <v>86.938751220703125</v>
@@ -17752,13 +18733,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B112">
         <v>2014</v>
       </c>
       <c r="C112" t="s">
-        <v>373</v>
+        <v>700</v>
       </c>
       <c r="D112">
         <v>87.489273071289063</v>
@@ -17924,13 +18905,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B113">
         <v>2015</v>
       </c>
       <c r="C113" t="s">
-        <v>373</v>
+        <v>700</v>
       </c>
       <c r="D113">
         <v>83.576515197753906</v>
@@ -18096,13 +19077,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B114">
         <v>2016</v>
       </c>
       <c r="C114" t="s">
-        <v>374</v>
+        <v>701</v>
       </c>
       <c r="D114">
         <v>83.4117431640625</v>
@@ -18250,13 +19231,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B115">
         <v>2017</v>
       </c>
       <c r="C115" t="s">
-        <v>374</v>
+        <v>701</v>
       </c>
       <c r="D115">
         <v>84.725067138671875</v>
@@ -18374,13 +19355,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B116">
         <v>2018</v>
       </c>
       <c r="C116" t="s">
-        <v>374</v>
+        <v>701</v>
       </c>
       <c r="D116">
         <v>81.453964233398438</v>
@@ -18528,13 +19509,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B117">
         <v>2019</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>701</v>
       </c>
       <c r="D117">
         <v>80.349822998046875</v>
@@ -18682,13 +19663,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B118">
         <v>2020</v>
       </c>
       <c r="C118" t="s">
-        <v>374</v>
+        <v>701</v>
       </c>
       <c r="D118">
         <v>69.684257507324219</v>
@@ -18836,13 +19817,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B119">
         <v>2021</v>
       </c>
       <c r="C119" t="s">
-        <v>374</v>
+        <v>701</v>
       </c>
       <c r="D119">
         <v>79.197860717773438</v>
@@ -18990,13 +19971,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B120">
         <v>2022</v>
       </c>
       <c r="C120" t="s">
-        <v>375</v>
+        <v>702</v>
       </c>
       <c r="D120">
         <v>79.197860717773438</v>
@@ -19110,13 +20091,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>332</v>
+        <v>659</v>
       </c>
       <c r="B121">
         <v>2023</v>
       </c>
       <c r="C121" t="s">
-        <v>376</v>
+        <v>703</v>
       </c>
       <c r="D121">
         <v>79.197860717773438</v>
@@ -19230,13 +20211,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B122">
         <v>2000</v>
       </c>
       <c r="C122" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="D122">
         <v>76.655418395996094</v>
@@ -19344,13 +20325,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B123">
         <v>2001</v>
       </c>
       <c r="C123" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="D123">
         <v>76.655418395996094</v>
@@ -19464,13 +20445,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B124">
         <v>2002</v>
       </c>
       <c r="C124" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="D124">
         <v>76.655418395996094</v>
@@ -19578,13 +20559,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B125">
         <v>2003</v>
       </c>
       <c r="C125" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="D125">
         <v>76.655418395996094</v>
@@ -19698,13 +20679,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B126">
         <v>2004</v>
       </c>
       <c r="C126" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="D126">
         <v>76.655418395996094</v>
@@ -19812,13 +20793,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B127">
         <v>2005</v>
       </c>
       <c r="C127" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="D127">
         <v>76.655418395996094</v>
@@ -19932,13 +20913,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B128">
         <v>2006</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="D128">
         <v>76.655418395996094</v>
@@ -20052,13 +21033,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B129">
         <v>2007</v>
       </c>
       <c r="C129" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D129">
         <v>85.791351318359375</v>
@@ -20208,13 +21189,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B130">
         <v>2008</v>
       </c>
       <c r="C130" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D130">
         <v>79.070480346679688</v>
@@ -20364,13 +21345,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B131">
         <v>2009</v>
       </c>
       <c r="C131" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D131">
         <v>76.637855529785156</v>
@@ -20520,13 +21501,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B132">
         <v>2010</v>
       </c>
       <c r="C132" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D132">
         <v>80.821647644042969</v>
@@ -20676,13 +21657,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B133">
         <v>2011</v>
       </c>
       <c r="C133" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D133">
         <v>74.784317016601563</v>
@@ -20832,13 +21813,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B134">
         <v>2012</v>
       </c>
       <c r="C134" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D134">
         <v>73.00701904296875</v>
@@ -20988,13 +21969,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B135">
         <v>2013</v>
       </c>
       <c r="C135" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D135">
         <v>78.041656494140625</v>
@@ -21144,13 +22125,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B136">
         <v>2014</v>
       </c>
       <c r="C136" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D136">
         <v>77.843711853027344</v>
@@ -21300,13 +22281,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B137">
         <v>2015</v>
       </c>
       <c r="C137" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D137">
         <v>81.9007568359375</v>
@@ -21456,13 +22437,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B138">
         <v>2016</v>
       </c>
       <c r="C138" t="s">
-        <v>378</v>
+        <v>705</v>
       </c>
       <c r="D138">
         <v>80.4532470703125</v>
@@ -21612,13 +22593,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B139">
         <v>2017</v>
       </c>
       <c r="C139" t="s">
-        <v>379</v>
+        <v>706</v>
       </c>
       <c r="D139">
         <v>76.636749267578125</v>
@@ -21754,13 +22735,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B140">
         <v>2018</v>
       </c>
       <c r="C140" t="s">
-        <v>379</v>
+        <v>706</v>
       </c>
       <c r="D140">
         <v>76.687026977539063</v>
@@ -21908,13 +22889,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B141">
         <v>2019</v>
       </c>
       <c r="C141" t="s">
-        <v>379</v>
+        <v>706</v>
       </c>
       <c r="D141">
         <v>73.977447509765625</v>
@@ -22062,13 +23043,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B142">
         <v>2020</v>
       </c>
       <c r="C142" t="s">
-        <v>379</v>
+        <v>706</v>
       </c>
       <c r="D142">
         <v>65.548591613769531</v>
@@ -22216,13 +23197,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B143">
         <v>2021</v>
       </c>
       <c r="C143" t="s">
-        <v>379</v>
+        <v>706</v>
       </c>
       <c r="D143">
         <v>72.408706665039063</v>
@@ -22370,13 +23351,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B144">
         <v>2022</v>
       </c>
       <c r="C144" t="s">
-        <v>379</v>
+        <v>706</v>
       </c>
       <c r="D144">
         <v>74.982261657714844</v>
@@ -22524,13 +23505,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>333</v>
+        <v>660</v>
       </c>
       <c r="B145">
         <v>2023</v>
       </c>
       <c r="C145" t="s">
-        <v>379</v>
+        <v>706</v>
       </c>
       <c r="D145">
         <v>74.549346923828125</v>
@@ -22678,13 +23659,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B146">
         <v>2000</v>
       </c>
       <c r="C146" t="s">
-        <v>380</v>
+        <v>707</v>
       </c>
       <c r="D146">
         <v>101.53324127197266</v>
@@ -22848,13 +23829,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B147">
         <v>2001</v>
       </c>
       <c r="C147" t="s">
-        <v>380</v>
+        <v>707</v>
       </c>
       <c r="D147">
         <v>95.162033081054688</v>
@@ -22994,13 +23975,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B148">
         <v>2002</v>
       </c>
       <c r="C148" t="s">
-        <v>381</v>
+        <v>708</v>
       </c>
       <c r="D148">
         <v>95.162033081054688</v>
@@ -23108,13 +24089,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B149">
         <v>2003</v>
       </c>
       <c r="C149" t="s">
-        <v>382</v>
+        <v>709</v>
       </c>
       <c r="D149">
         <v>90.761138916015625</v>
@@ -23254,13 +24235,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B150">
         <v>2004</v>
       </c>
       <c r="C150" t="s">
-        <v>383</v>
+        <v>710</v>
       </c>
       <c r="D150">
         <v>95.162033081054688</v>
@@ -23394,13 +24375,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B151">
         <v>2005</v>
       </c>
       <c r="C151" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D151">
         <v>95.162033081054688</v>
@@ -23534,13 +24515,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B152">
         <v>2006</v>
       </c>
       <c r="C152" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D152">
         <v>92.230690002441406</v>
@@ -23694,13 +24675,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B153">
         <v>2007</v>
       </c>
       <c r="C153" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D153">
         <v>95.162033081054688</v>
@@ -23834,13 +24815,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B154">
         <v>2008</v>
       </c>
       <c r="C154" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D154">
         <v>95.162033081054688</v>
@@ -23974,13 +24955,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B155">
         <v>2009</v>
       </c>
       <c r="C155" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D155">
         <v>88.0399169921875</v>
@@ -24134,13 +25115,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B156">
         <v>2010</v>
       </c>
       <c r="C156" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D156">
         <v>95.162033081054688</v>
@@ -24274,13 +25255,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B157">
         <v>2011</v>
       </c>
       <c r="C157" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D157">
         <v>90.334259033203125</v>
@@ -24434,13 +25415,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B158">
         <v>2012</v>
       </c>
       <c r="C158" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D158">
         <v>95.162033081054688</v>
@@ -24574,13 +25555,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B159">
         <v>2013</v>
       </c>
       <c r="C159" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D159">
         <v>98.433525085449219</v>
@@ -24734,13 +25715,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B160">
         <v>2014</v>
       </c>
       <c r="C160" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D160">
         <v>95.162033081054688</v>
@@ -24874,13 +25855,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B161">
         <v>2015</v>
       </c>
       <c r="C161" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D161">
         <v>98.970977783203125</v>
@@ -25034,13 +26015,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B162">
         <v>2016</v>
       </c>
       <c r="C162" t="s">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="D162">
         <v>95.162033081054688</v>
@@ -25172,13 +26153,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B163">
         <v>2017</v>
       </c>
       <c r="C163" t="s">
-        <v>385</v>
+        <v>712</v>
       </c>
       <c r="D163">
         <v>98.95208740234375</v>
@@ -25318,13 +26299,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B164">
         <v>2018</v>
       </c>
       <c r="C164" t="s">
-        <v>385</v>
+        <v>712</v>
       </c>
       <c r="D164">
         <v>95.162033081054688</v>
@@ -25446,13 +26427,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B165">
         <v>2019</v>
       </c>
       <c r="C165" t="s">
-        <v>385</v>
+        <v>712</v>
       </c>
       <c r="D165">
         <v>95.162033081054688</v>
@@ -25574,13 +26555,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B166">
         <v>2020</v>
       </c>
       <c r="C166" t="s">
-        <v>385</v>
+        <v>712</v>
       </c>
       <c r="D166">
         <v>95.995048522949219</v>
@@ -25720,13 +26701,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B167">
         <v>2021</v>
       </c>
       <c r="C167" t="s">
-        <v>385</v>
+        <v>712</v>
       </c>
       <c r="D167">
         <v>95.162033081054688</v>
@@ -25848,13 +26829,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B168">
         <v>2022</v>
       </c>
       <c r="C168" t="s">
-        <v>385</v>
+        <v>712</v>
       </c>
       <c r="D168">
         <v>96.36944580078125</v>
@@ -25994,13 +26975,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>661</v>
       </c>
       <c r="B169">
         <v>2023</v>
       </c>
       <c r="C169" t="s">
-        <v>386</v>
+        <v>713</v>
       </c>
       <c r="D169">
         <v>96.36944580078125</v>
@@ -26108,13 +27089,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B170">
         <v>2000</v>
       </c>
       <c r="C170" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D170">
         <v>78.173255920410156</v>
@@ -26246,13 +27227,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B171">
         <v>2001</v>
       </c>
       <c r="C171" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D171">
         <v>84.881431579589844</v>
@@ -26408,13 +27389,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B172">
         <v>2002</v>
       </c>
       <c r="C172" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D172">
         <v>87.962692260742188</v>
@@ -26570,13 +27551,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B173">
         <v>2003</v>
       </c>
       <c r="C173" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D173">
         <v>83.578880310058594</v>
@@ -26732,13 +27713,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B174">
         <v>2004</v>
       </c>
       <c r="C174" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D174">
         <v>82.340003967285156</v>
@@ -26894,13 +27875,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B175">
         <v>2005</v>
       </c>
       <c r="C175" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D175">
         <v>83.268722534179688</v>
@@ -27056,13 +28037,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B176">
         <v>2006</v>
       </c>
       <c r="C176" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D176">
         <v>84.091545104980469</v>
@@ -27218,13 +28199,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B177">
         <v>2007</v>
       </c>
       <c r="C177" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D177">
         <v>82.198585510253906</v>
@@ -27380,13 +28361,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B178">
         <v>2008</v>
       </c>
       <c r="C178" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D178">
         <v>81.144363403320313</v>
@@ -27542,13 +28523,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B179">
         <v>2009</v>
       </c>
       <c r="C179" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="D179">
         <v>77.614517211914063</v>
@@ -27704,13 +28685,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B180">
         <v>2010</v>
       </c>
       <c r="C180" t="s">
-        <v>388</v>
+        <v>715</v>
       </c>
       <c r="D180">
         <v>78.173255920410156</v>
@@ -27842,13 +28823,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B181">
         <v>2011</v>
       </c>
       <c r="C181" t="s">
-        <v>388</v>
+        <v>715</v>
       </c>
       <c r="D181">
         <v>75.505302429199219</v>
@@ -28004,13 +28985,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B182">
         <v>2012</v>
       </c>
       <c r="C182" t="s">
-        <v>388</v>
+        <v>715</v>
       </c>
       <c r="D182">
         <v>76.863693237304688</v>
@@ -28166,13 +29147,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B183">
         <v>2013</v>
       </c>
       <c r="C183" t="s">
-        <v>388</v>
+        <v>715</v>
       </c>
       <c r="D183">
         <v>74.90972900390625</v>
@@ -28328,13 +29309,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B184">
         <v>2014</v>
       </c>
       <c r="C184" t="s">
-        <v>388</v>
+        <v>715</v>
       </c>
       <c r="D184">
         <v>74.681007385253906</v>
@@ -28490,13 +29471,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B185">
         <v>2015</v>
       </c>
       <c r="C185" t="s">
-        <v>388</v>
+        <v>715</v>
       </c>
       <c r="D185">
         <v>73.565216064453125</v>
@@ -28652,13 +29633,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B186">
         <v>2016</v>
       </c>
       <c r="C186" t="s">
-        <v>389</v>
+        <v>716</v>
       </c>
       <c r="D186">
         <v>73.71392822265625</v>
@@ -28806,13 +29787,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B187">
         <v>2017</v>
       </c>
       <c r="C187" t="s">
-        <v>389</v>
+        <v>716</v>
       </c>
       <c r="D187">
         <v>72.37841796875</v>
@@ -28960,13 +29941,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B188">
         <v>2018</v>
       </c>
       <c r="C188" t="s">
-        <v>389</v>
+        <v>716</v>
       </c>
       <c r="D188">
         <v>73.861968994140625</v>
@@ -29114,13 +30095,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B189">
         <v>2019</v>
       </c>
       <c r="C189" t="s">
-        <v>389</v>
+        <v>716</v>
       </c>
       <c r="D189">
         <v>75.992515563964844</v>
@@ -29268,13 +30249,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B190">
         <v>2020</v>
       </c>
       <c r="C190" t="s">
-        <v>389</v>
+        <v>716</v>
       </c>
       <c r="D190">
         <v>73.624649047851563</v>
@@ -29422,13 +30403,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B191">
         <v>2021</v>
       </c>
       <c r="C191" t="s">
-        <v>389</v>
+        <v>716</v>
       </c>
       <c r="D191">
         <v>71.287971496582031</v>
@@ -29576,13 +30557,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B192">
         <v>2022</v>
       </c>
       <c r="C192" t="s">
-        <v>390</v>
+        <v>717</v>
       </c>
       <c r="D192">
         <v>71.287971496582031</v>
@@ -29696,13 +30677,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="B193">
         <v>2023</v>
       </c>
       <c r="C193" t="s">
-        <v>391</v>
+        <v>718</v>
       </c>
       <c r="D193">
         <v>71.287971496582031</v>
@@ -29816,13 +30797,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B194">
         <v>2000</v>
       </c>
       <c r="C194" t="s">
-        <v>392</v>
+        <v>719</v>
       </c>
       <c r="D194">
         <v>80.193367004394531</v>
@@ -29930,13 +30911,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B195">
         <v>2001</v>
       </c>
       <c r="C195" t="s">
-        <v>393</v>
+        <v>720</v>
       </c>
       <c r="D195">
         <v>80.193367004394531</v>
@@ -30050,13 +31031,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B196">
         <v>2002</v>
       </c>
       <c r="C196" t="s">
-        <v>394</v>
+        <v>721</v>
       </c>
       <c r="D196">
         <v>80.193367004394531</v>
@@ -30170,13 +31151,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B197">
         <v>2003</v>
       </c>
       <c r="C197" t="s">
-        <v>395</v>
+        <v>722</v>
       </c>
       <c r="D197">
         <v>80.193367004394531</v>
@@ -30290,13 +31271,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B198">
         <v>2004</v>
       </c>
       <c r="C198" t="s">
-        <v>396</v>
+        <v>723</v>
       </c>
       <c r="D198">
         <v>80.193367004394531</v>
@@ -30410,13 +31391,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B199">
         <v>2005</v>
       </c>
       <c r="C199" t="s">
-        <v>397</v>
+        <v>724</v>
       </c>
       <c r="D199">
         <v>80.193367004394531</v>
@@ -30530,13 +31511,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B200">
         <v>2006</v>
       </c>
       <c r="C200" t="s">
-        <v>398</v>
+        <v>725</v>
       </c>
       <c r="D200">
         <v>80.193367004394531</v>
@@ -30650,13 +31631,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B201">
         <v>2007</v>
       </c>
       <c r="C201" t="s">
-        <v>399</v>
+        <v>726</v>
       </c>
       <c r="D201">
         <v>80.193367004394531</v>
@@ -30770,13 +31751,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B202">
         <v>2008</v>
       </c>
       <c r="C202" t="s">
-        <v>400</v>
+        <v>727</v>
       </c>
       <c r="D202">
         <v>80.193367004394531</v>
@@ -30884,13 +31865,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B203">
         <v>2009</v>
       </c>
       <c r="C203" t="s">
-        <v>401</v>
+        <v>728</v>
       </c>
       <c r="D203">
         <v>80.193367004394531</v>
@@ -31004,13 +31985,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B204">
         <v>2010</v>
       </c>
       <c r="C204" t="s">
-        <v>402</v>
+        <v>729</v>
       </c>
       <c r="D204">
         <v>80.193367004394531</v>
@@ -31124,13 +32105,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B205">
         <v>2011</v>
       </c>
       <c r="C205" t="s">
-        <v>403</v>
+        <v>730</v>
       </c>
       <c r="D205">
         <v>80.193367004394531</v>
@@ -31238,13 +32219,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B206">
         <v>2012</v>
       </c>
       <c r="C206" t="s">
-        <v>404</v>
+        <v>731</v>
       </c>
       <c r="D206">
         <v>80.193367004394531</v>
@@ -31358,13 +32339,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B207">
         <v>2013</v>
       </c>
       <c r="C207" t="s">
-        <v>405</v>
+        <v>732</v>
       </c>
       <c r="D207">
         <v>80.193367004394531</v>
@@ -31478,13 +32459,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B208">
         <v>2014</v>
       </c>
       <c r="C208" t="s">
-        <v>406</v>
+        <v>733</v>
       </c>
       <c r="D208">
         <v>80.193367004394531</v>
@@ -31598,13 +32579,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B209">
         <v>2015</v>
       </c>
       <c r="C209" t="s">
-        <v>407</v>
+        <v>734</v>
       </c>
       <c r="D209">
         <v>80.193367004394531</v>
@@ -31718,13 +32699,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B210">
         <v>2016</v>
       </c>
       <c r="C210" t="s">
-        <v>408</v>
+        <v>735</v>
       </c>
       <c r="D210">
         <v>80.193367004394531</v>
@@ -31838,13 +32819,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B211">
         <v>2017</v>
       </c>
       <c r="C211" t="s">
-        <v>409</v>
+        <v>736</v>
       </c>
       <c r="D211">
         <v>80.193367004394531</v>
@@ -31958,13 +32939,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B212">
         <v>2018</v>
       </c>
       <c r="C212" t="s">
-        <v>410</v>
+        <v>737</v>
       </c>
       <c r="D212">
         <v>80.193367004394531</v>
@@ -32078,13 +33059,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B213">
         <v>2019</v>
       </c>
       <c r="C213" t="s">
-        <v>411</v>
+        <v>738</v>
       </c>
       <c r="D213">
         <v>80.193367004394531</v>
@@ -32198,13 +33179,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B214">
         <v>2020</v>
       </c>
       <c r="C214" t="s">
-        <v>412</v>
+        <v>739</v>
       </c>
       <c r="D214">
         <v>80.193367004394531</v>
@@ -32318,13 +33299,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B215">
         <v>2021</v>
       </c>
       <c r="C215" t="s">
-        <v>413</v>
+        <v>740</v>
       </c>
       <c r="D215">
         <v>80.193367004394531</v>
@@ -32438,13 +33419,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B216">
         <v>2022</v>
       </c>
       <c r="C216" t="s">
-        <v>414</v>
+        <v>741</v>
       </c>
       <c r="D216">
         <v>80.193367004394531</v>
@@ -32558,13 +33539,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>336</v>
+        <v>663</v>
       </c>
       <c r="B217">
         <v>2023</v>
       </c>
       <c r="C217" t="s">
-        <v>415</v>
+        <v>742</v>
       </c>
       <c r="D217">
         <v>80.193367004394531</v>
@@ -32678,13 +33659,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B218">
         <v>2000</v>
       </c>
       <c r="C218" t="s">
-        <v>416</v>
+        <v>743</v>
       </c>
       <c r="D218">
         <v>59.057159423828125</v>
@@ -32850,13 +33831,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B219">
         <v>2001</v>
       </c>
       <c r="C219" t="s">
-        <v>416</v>
+        <v>743</v>
       </c>
       <c r="D219">
         <v>77.926979064941406</v>
@@ -32998,13 +33979,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B220">
         <v>2002</v>
       </c>
       <c r="C220" t="s">
-        <v>416</v>
+        <v>743</v>
       </c>
       <c r="D220">
         <v>59.782558441162109</v>
@@ -33170,13 +34151,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B221">
         <v>2003</v>
       </c>
       <c r="C221" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D221">
         <v>77.926979064941406</v>
@@ -33318,13 +34299,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B222">
         <v>2004</v>
       </c>
       <c r="C222" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D222">
         <v>74.276649475097656</v>
@@ -33490,13 +34471,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B223">
         <v>2005</v>
       </c>
       <c r="C223" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D223">
         <v>77.926979064941406</v>
@@ -33638,13 +34619,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B224">
         <v>2006</v>
       </c>
       <c r="C224" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D224">
         <v>79.154541015625</v>
@@ -33810,13 +34791,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B225">
         <v>2007</v>
       </c>
       <c r="C225" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D225">
         <v>77.926979064941406</v>
@@ -33958,13 +34939,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B226">
         <v>2008</v>
       </c>
       <c r="C226" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D226">
         <v>77.819007873535156</v>
@@ -34130,13 +35111,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B227">
         <v>2009</v>
       </c>
       <c r="C227" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D227">
         <v>77.926979064941406</v>
@@ -34278,13 +35259,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B228">
         <v>2010</v>
       </c>
       <c r="C228" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D228">
         <v>82.92462158203125</v>
@@ -34450,13 +35431,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B229">
         <v>2011</v>
       </c>
       <c r="C229" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D229">
         <v>77.926979064941406</v>
@@ -34598,13 +35579,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B230">
         <v>2012</v>
       </c>
       <c r="C230" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D230">
         <v>80.075202941894531</v>
@@ -34770,13 +35751,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B231">
         <v>2013</v>
       </c>
       <c r="C231" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D231">
         <v>77.926979064941406</v>
@@ -34918,13 +35899,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B232">
         <v>2014</v>
       </c>
       <c r="C232" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D232">
         <v>83.916366577148438</v>
@@ -35090,13 +36071,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B233">
         <v>2015</v>
       </c>
       <c r="C233" t="s">
-        <v>417</v>
+        <v>744</v>
       </c>
       <c r="D233">
         <v>77.926979064941406</v>
@@ -35238,13 +36219,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B234">
         <v>2016</v>
       </c>
       <c r="C234" t="s">
-        <v>418</v>
+        <v>745</v>
       </c>
       <c r="D234">
         <v>86.420242309570313</v>
@@ -35392,13 +36373,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B235">
         <v>2017</v>
       </c>
       <c r="C235" t="s">
-        <v>418</v>
+        <v>745</v>
       </c>
       <c r="D235">
         <v>77.926979064941406</v>
@@ -35524,13 +36505,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B236">
         <v>2018</v>
       </c>
       <c r="C236" t="s">
-        <v>418</v>
+        <v>745</v>
       </c>
       <c r="D236">
         <v>85.915252685546875</v>
@@ -35678,13 +36659,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B237">
         <v>2019</v>
       </c>
       <c r="C237" t="s">
-        <v>418</v>
+        <v>745</v>
       </c>
       <c r="D237">
         <v>77.926979064941406</v>
@@ -35810,13 +36791,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B238">
         <v>2020</v>
       </c>
       <c r="C238" t="s">
-        <v>418</v>
+        <v>745</v>
       </c>
       <c r="D238">
         <v>85.886253356933594</v>
@@ -35964,13 +36945,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B239">
         <v>2021</v>
       </c>
       <c r="C239" t="s">
-        <v>418</v>
+        <v>745</v>
       </c>
       <c r="D239">
         <v>77.926979064941406</v>
@@ -36096,13 +37077,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B240">
         <v>2022</v>
       </c>
       <c r="C240" t="s">
-        <v>418</v>
+        <v>745</v>
       </c>
       <c r="D240">
         <v>79.895851135253906</v>
@@ -36250,13 +37231,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="B241">
         <v>2023</v>
       </c>
       <c r="C241" t="s">
-        <v>419</v>
+        <v>746</v>
       </c>
       <c r="D241">
         <v>79.895851135253906</v>
@@ -36364,13 +37345,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B242">
         <v>2000</v>
       </c>
       <c r="C242" t="s">
-        <v>420</v>
+        <v>747</v>
       </c>
       <c r="D242">
         <v>59.037322998046875</v>
@@ -36484,13 +37465,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B243">
         <v>2001</v>
       </c>
       <c r="C243" t="s">
-        <v>421</v>
+        <v>748</v>
       </c>
       <c r="D243">
         <v>59.037322998046875</v>
@@ -36604,13 +37585,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B244">
         <v>2002</v>
       </c>
       <c r="C244" t="s">
-        <v>422</v>
+        <v>749</v>
       </c>
       <c r="D244">
         <v>59.037322998046875</v>
@@ -36724,13 +37705,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B245">
         <v>2003</v>
       </c>
       <c r="C245" t="s">
-        <v>423</v>
+        <v>750</v>
       </c>
       <c r="D245">
         <v>59.037322998046875</v>
@@ -36844,13 +37825,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B246">
         <v>2004</v>
       </c>
       <c r="C246" t="s">
-        <v>424</v>
+        <v>751</v>
       </c>
       <c r="D246">
         <v>59.037322998046875</v>
@@ -36964,13 +37945,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B247">
         <v>2005</v>
       </c>
       <c r="C247" t="s">
-        <v>425</v>
+        <v>752</v>
       </c>
       <c r="D247">
         <v>59.037322998046875</v>
@@ -37084,13 +38065,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B248">
         <v>2006</v>
       </c>
       <c r="C248" t="s">
-        <v>426</v>
+        <v>753</v>
       </c>
       <c r="D248">
         <v>59.037322998046875</v>
@@ -37204,13 +38185,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B249">
         <v>2007</v>
       </c>
       <c r="C249" t="s">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="D249">
         <v>61.149925231933594</v>
@@ -37376,13 +38357,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B250">
         <v>2008</v>
       </c>
       <c r="C250" t="s">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="D250">
         <v>61.386894226074219</v>
@@ -37548,13 +38529,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B251">
         <v>2009</v>
       </c>
       <c r="C251" t="s">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="D251">
         <v>57.413516998291016</v>
@@ -37720,13 +38701,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B252">
         <v>2010</v>
       </c>
       <c r="C252" t="s">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="D252">
         <v>56.061275482177734</v>
@@ -37892,13 +38873,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B253">
         <v>2011</v>
       </c>
       <c r="C253" t="s">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="D253">
         <v>57.537090301513672</v>
@@ -38064,13 +39045,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B254">
         <v>2012</v>
       </c>
       <c r="C254" t="s">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="D254">
         <v>61.454891204833984</v>
@@ -38236,13 +39217,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B255">
         <v>2013</v>
       </c>
       <c r="C255" t="s">
-        <v>427</v>
+        <v>754</v>
       </c>
       <c r="D255">
         <v>59.869579315185547</v>
@@ -38408,13 +39389,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B256">
         <v>2014</v>
       </c>
       <c r="C256" t="s">
-        <v>428</v>
+        <v>755</v>
       </c>
       <c r="D256">
         <v>57.285350799560547</v>
@@ -38562,13 +39543,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B257">
         <v>2015</v>
       </c>
       <c r="C257" t="s">
-        <v>428</v>
+        <v>755</v>
       </c>
       <c r="D257">
         <v>64.142227172851563</v>
@@ -38716,13 +39697,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B258">
         <v>2016</v>
       </c>
       <c r="C258" t="s">
-        <v>428</v>
+        <v>755</v>
       </c>
       <c r="D258">
         <v>54.072483062744141</v>
@@ -38870,13 +39851,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B259">
         <v>2017</v>
       </c>
       <c r="C259" t="s">
-        <v>429</v>
+        <v>756</v>
       </c>
       <c r="D259">
         <v>54.072483062744141</v>
@@ -38990,13 +39971,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B260">
         <v>2018</v>
       </c>
       <c r="C260" t="s">
-        <v>430</v>
+        <v>757</v>
       </c>
       <c r="D260">
         <v>54.072483062744141</v>
@@ -39110,13 +40091,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B261">
         <v>2019</v>
       </c>
       <c r="C261" t="s">
-        <v>431</v>
+        <v>758</v>
       </c>
       <c r="D261">
         <v>54.072483062744141</v>
@@ -39230,13 +40211,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B262">
         <v>2020</v>
       </c>
       <c r="C262" t="s">
-        <v>432</v>
+        <v>759</v>
       </c>
       <c r="D262">
         <v>54.072483062744141</v>
@@ -39350,13 +40331,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B263">
         <v>2021</v>
       </c>
       <c r="C263" t="s">
-        <v>433</v>
+        <v>760</v>
       </c>
       <c r="D263">
         <v>54.072483062744141</v>
@@ -39470,13 +40451,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B264">
         <v>2022</v>
       </c>
       <c r="C264" t="s">
-        <v>434</v>
+        <v>761</v>
       </c>
       <c r="D264">
         <v>54.072483062744141</v>
@@ -39590,13 +40571,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="B265">
         <v>2023</v>
       </c>
       <c r="C265" t="s">
-        <v>435</v>
+        <v>762</v>
       </c>
       <c r="D265">
         <v>54.072483062744141</v>
@@ -39719,192 +40700,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>491</v>
+        <v>818</v>
       </c>
       <c r="B1" t="s">
-        <v>503</v>
+        <v>830</v>
       </c>
       <c r="C1" t="s">
-        <v>504</v>
+        <v>831</v>
       </c>
       <c r="D1" t="s">
-        <v>598</v>
+        <v>925</v>
       </c>
       <c r="E1" t="s">
-        <v>599</v>
+        <v>926</v>
       </c>
       <c r="F1" t="s">
-        <v>600</v>
+        <v>927</v>
       </c>
       <c r="G1" t="s">
-        <v>601</v>
+        <v>928</v>
       </c>
       <c r="H1" t="s">
-        <v>602</v>
+        <v>929</v>
       </c>
       <c r="I1" t="s">
-        <v>603</v>
+        <v>930</v>
       </c>
       <c r="J1" t="s">
-        <v>604</v>
+        <v>931</v>
       </c>
       <c r="K1" t="s">
-        <v>605</v>
+        <v>932</v>
       </c>
       <c r="L1" t="s">
-        <v>606</v>
+        <v>933</v>
       </c>
       <c r="M1" t="s">
-        <v>607</v>
+        <v>934</v>
       </c>
       <c r="N1" t="s">
-        <v>608</v>
+        <v>935</v>
       </c>
       <c r="O1" t="s">
-        <v>609</v>
+        <v>936</v>
       </c>
       <c r="P1" t="s">
-        <v>610</v>
+        <v>937</v>
       </c>
       <c r="Q1" t="s">
-        <v>611</v>
+        <v>938</v>
       </c>
       <c r="R1" t="s">
-        <v>612</v>
+        <v>939</v>
       </c>
       <c r="S1" t="s">
-        <v>613</v>
+        <v>940</v>
       </c>
       <c r="T1" t="s">
-        <v>614</v>
+        <v>941</v>
       </c>
       <c r="U1" t="s">
-        <v>615</v>
+        <v>942</v>
       </c>
       <c r="V1" t="s">
-        <v>616</v>
+        <v>943</v>
       </c>
       <c r="W1" t="s">
-        <v>617</v>
+        <v>944</v>
       </c>
       <c r="X1" t="s">
-        <v>618</v>
+        <v>945</v>
       </c>
       <c r="Y1" t="s">
-        <v>619</v>
+        <v>946</v>
       </c>
       <c r="Z1" t="s">
-        <v>620</v>
+        <v>947</v>
       </c>
       <c r="AA1" t="s">
-        <v>621</v>
+        <v>948</v>
       </c>
       <c r="AB1" t="s">
-        <v>622</v>
+        <v>949</v>
       </c>
       <c r="AC1" t="s">
-        <v>623</v>
+        <v>950</v>
       </c>
       <c r="AD1" t="s">
-        <v>624</v>
+        <v>951</v>
       </c>
       <c r="AE1" t="s">
-        <v>625</v>
+        <v>952</v>
       </c>
       <c r="AF1" t="s">
-        <v>626</v>
+        <v>953</v>
       </c>
       <c r="AG1" t="s">
-        <v>627</v>
+        <v>954</v>
       </c>
       <c r="AH1" t="s">
-        <v>628</v>
+        <v>955</v>
       </c>
       <c r="AI1" t="s">
-        <v>629</v>
+        <v>956</v>
       </c>
       <c r="AJ1" t="s">
-        <v>630</v>
+        <v>957</v>
       </c>
       <c r="AK1" t="s">
-        <v>631</v>
+        <v>958</v>
       </c>
       <c r="AL1" t="s">
-        <v>632</v>
+        <v>959</v>
       </c>
       <c r="AM1" t="s">
-        <v>633</v>
+        <v>960</v>
       </c>
       <c r="AN1" t="s">
-        <v>634</v>
+        <v>961</v>
       </c>
       <c r="AO1" t="s">
-        <v>635</v>
+        <v>962</v>
       </c>
       <c r="AP1" t="s">
-        <v>636</v>
+        <v>963</v>
       </c>
       <c r="AQ1" t="s">
-        <v>637</v>
+        <v>964</v>
       </c>
       <c r="AR1" t="s">
-        <v>638</v>
+        <v>965</v>
       </c>
       <c r="AS1" t="s">
-        <v>639</v>
+        <v>966</v>
       </c>
       <c r="AT1" t="s">
-        <v>640</v>
+        <v>967</v>
       </c>
       <c r="AU1" t="s">
-        <v>641</v>
+        <v>968</v>
       </c>
       <c r="AV1" t="s">
-        <v>642</v>
+        <v>969</v>
       </c>
       <c r="AW1" t="s">
-        <v>643</v>
+        <v>970</v>
       </c>
       <c r="AX1" t="s">
-        <v>644</v>
+        <v>971</v>
       </c>
       <c r="AY1" t="s">
-        <v>645</v>
+        <v>972</v>
       </c>
       <c r="AZ1" t="s">
-        <v>646</v>
+        <v>973</v>
       </c>
       <c r="BA1" t="s">
-        <v>647</v>
+        <v>974</v>
       </c>
       <c r="BB1" t="s">
-        <v>648</v>
+        <v>975</v>
       </c>
       <c r="BC1" t="s">
-        <v>649</v>
+        <v>976</v>
       </c>
       <c r="BD1" t="s">
-        <v>650</v>
+        <v>977</v>
       </c>
       <c r="BE1" t="s">
-        <v>651</v>
+        <v>978</v>
       </c>
       <c r="BF1" t="s">
-        <v>652</v>
+        <v>979</v>
       </c>
       <c r="BG1" t="s">
-        <v>653</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D2">
         <v>77.910781860351563</v>
@@ -40043,13 +41024,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
       <c r="C3" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D3">
         <v>77.910781860351563</v>
@@ -40192,13 +41173,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B4">
         <v>2002</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D4">
         <v>74.896766662597656</v>
@@ -40365,13 +41346,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B5">
         <v>2003</v>
       </c>
       <c r="C5" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D5">
         <v>74.966567993164063</v>
@@ -40538,13 +41519,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B6">
         <v>2004</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D6">
         <v>75.890884399414063</v>
@@ -40711,13 +41692,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
       <c r="C7" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D7">
         <v>78.350982666015625</v>
@@ -40884,13 +41865,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B8">
         <v>2006</v>
       </c>
       <c r="C8" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D8">
         <v>77.910781860351563</v>
@@ -41033,13 +42014,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B9">
         <v>2007</v>
       </c>
       <c r="C9" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D9">
         <v>77.910781860351563</v>
@@ -41182,13 +42163,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B10">
         <v>2008</v>
       </c>
       <c r="C10" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D10">
         <v>78.331573486328125</v>
@@ -41355,13 +42336,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
       <c r="C11" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D11">
         <v>78.044914245605469</v>
@@ -41528,13 +42509,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B12">
         <v>2010</v>
       </c>
       <c r="C12" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D12">
         <v>77.562141418457031</v>
@@ -41701,13 +42682,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
       <c r="C13" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D13">
         <v>77.970870971679688</v>
@@ -41874,13 +42855,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B14">
         <v>2012</v>
       </c>
       <c r="C14" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D14">
         <v>79.448699951171875</v>
@@ -42047,13 +43028,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B15">
         <v>2013</v>
       </c>
       <c r="C15" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D15">
         <v>79.185958862304688</v>
@@ -42220,13 +43201,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B16">
         <v>2014</v>
       </c>
       <c r="C16" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D16">
         <v>82.067207336425781</v>
@@ -42393,13 +43374,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D17">
         <v>79.753898620605469</v>
@@ -42566,13 +43547,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B18">
         <v>2016</v>
       </c>
       <c r="C18" t="s">
-        <v>505</v>
+        <v>832</v>
       </c>
       <c r="D18">
         <v>80.596000671386719</v>
@@ -42739,13 +43720,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B19">
         <v>2017</v>
       </c>
       <c r="C19" t="s">
-        <v>506</v>
+        <v>833</v>
       </c>
       <c r="D19">
         <v>77.590682983398438</v>
@@ -42894,13 +43875,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B20">
         <v>2018</v>
       </c>
       <c r="C20" t="s">
-        <v>506</v>
+        <v>833</v>
       </c>
       <c r="D20">
         <v>76.556411743164063</v>
@@ -43049,13 +44030,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B21">
         <v>2019</v>
       </c>
       <c r="C21" t="s">
-        <v>506</v>
+        <v>833</v>
       </c>
       <c r="D21">
         <v>78.222114562988281</v>
@@ -43204,13 +44185,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B22">
         <v>2020</v>
       </c>
       <c r="C22" t="s">
-        <v>506</v>
+        <v>833</v>
       </c>
       <c r="D22">
         <v>67.559135437011719</v>
@@ -43359,13 +44340,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B23">
         <v>2021</v>
       </c>
       <c r="C23" t="s">
-        <v>506</v>
+        <v>833</v>
       </c>
       <c r="D23">
         <v>69.032875061035156</v>
@@ -43514,13 +44495,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B24">
         <v>2022</v>
       </c>
       <c r="C24" t="s">
-        <v>506</v>
+        <v>833</v>
       </c>
       <c r="D24">
         <v>83.624465942382813</v>
@@ -43669,13 +44650,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>492</v>
+        <v>819</v>
       </c>
       <c r="B25">
         <v>2023</v>
       </c>
       <c r="C25" t="s">
-        <v>506</v>
+        <v>833</v>
       </c>
       <c r="D25">
         <v>88.5634765625</v>
@@ -43824,13 +44805,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B26">
         <v>2000</v>
       </c>
       <c r="C26" t="s">
-        <v>507</v>
+        <v>834</v>
       </c>
       <c r="D26">
         <v>63.507678985595703</v>
@@ -43937,13 +44918,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B27">
         <v>2001</v>
       </c>
       <c r="C27" t="s">
-        <v>508</v>
+        <v>835</v>
       </c>
       <c r="D27">
         <v>63.507678985595703</v>
@@ -44050,13 +45031,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B28">
         <v>2002</v>
       </c>
       <c r="C28" t="s">
-        <v>509</v>
+        <v>836</v>
       </c>
       <c r="D28">
         <v>63.507678985595703</v>
@@ -44163,13 +45144,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B29">
         <v>2003</v>
       </c>
       <c r="C29" t="s">
-        <v>510</v>
+        <v>837</v>
       </c>
       <c r="D29">
         <v>63.507678985595703</v>
@@ -44276,13 +45257,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B30">
         <v>2004</v>
       </c>
       <c r="C30" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D30">
         <v>66.837867736816406</v>
@@ -44417,13 +45398,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B31">
         <v>2005</v>
       </c>
       <c r="C31" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D31">
         <v>67.619316101074219</v>
@@ -44558,13 +45539,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B32">
         <v>2006</v>
       </c>
       <c r="C32" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D32">
         <v>67.213462829589844</v>
@@ -44699,13 +45680,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B33">
         <v>2007</v>
       </c>
       <c r="C33" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D33">
         <v>66.452812194824219</v>
@@ -44840,13 +45821,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B34">
         <v>2008</v>
       </c>
       <c r="C34" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D34">
         <v>63.865222930908203</v>
@@ -44981,13 +45962,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B35">
         <v>2009</v>
       </c>
       <c r="C35" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D35">
         <v>60.792781829833984</v>
@@ -45122,13 +46103,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B36">
         <v>2010</v>
       </c>
       <c r="C36" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D36">
         <v>63.594303131103516</v>
@@ -45263,13 +46244,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B37">
         <v>2011</v>
       </c>
       <c r="C37" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D37">
         <v>61.935272216796875</v>
@@ -45404,13 +46385,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B38">
         <v>2012</v>
       </c>
       <c r="C38" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D38">
         <v>58.21099853515625</v>
@@ -45545,13 +46526,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B39">
         <v>2013</v>
       </c>
       <c r="C39" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D39">
         <v>58.554744720458984</v>
@@ -45686,13 +46667,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B40">
         <v>2014</v>
       </c>
       <c r="C40" t="s">
-        <v>511</v>
+        <v>838</v>
       </c>
       <c r="D40">
         <v>58.554744720458984</v>
@@ -45807,13 +46788,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B41">
         <v>2015</v>
       </c>
       <c r="C41" t="s">
-        <v>512</v>
+        <v>839</v>
       </c>
       <c r="D41">
         <v>58.554744720458984</v>
@@ -45920,13 +46901,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B42">
         <v>2016</v>
       </c>
       <c r="C42" t="s">
-        <v>513</v>
+        <v>840</v>
       </c>
       <c r="D42">
         <v>58.554744720458984</v>
@@ -46033,13 +47014,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B43">
         <v>2017</v>
       </c>
       <c r="C43" t="s">
-        <v>514</v>
+        <v>841</v>
       </c>
       <c r="D43">
         <v>58.554744720458984</v>
@@ -46154,13 +47135,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B44">
         <v>2018</v>
       </c>
       <c r="C44" t="s">
-        <v>515</v>
+        <v>842</v>
       </c>
       <c r="D44">
         <v>58.554744720458984</v>
@@ -46275,13 +47256,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B45">
         <v>2019</v>
       </c>
       <c r="C45" t="s">
-        <v>516</v>
+        <v>843</v>
       </c>
       <c r="D45">
         <v>58.554744720458984</v>
@@ -46396,13 +47377,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B46">
         <v>2020</v>
       </c>
       <c r="C46" t="s">
-        <v>517</v>
+        <v>844</v>
       </c>
       <c r="D46">
         <v>58.554744720458984</v>
@@ -46517,13 +47498,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B47">
         <v>2021</v>
       </c>
       <c r="C47" t="s">
-        <v>518</v>
+        <v>845</v>
       </c>
       <c r="D47">
         <v>58.554744720458984</v>
@@ -46638,13 +47619,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B48">
         <v>2022</v>
       </c>
       <c r="C48" t="s">
-        <v>519</v>
+        <v>846</v>
       </c>
       <c r="D48">
         <v>58.554744720458984</v>
@@ -46759,13 +47740,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>493</v>
+        <v>820</v>
       </c>
       <c r="B49">
         <v>2023</v>
       </c>
       <c r="C49" t="s">
-        <v>520</v>
+        <v>847</v>
       </c>
       <c r="D49">
         <v>58.554744720458984</v>
@@ -46880,13 +47861,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B50">
         <v>2000</v>
       </c>
       <c r="C50" t="s">
-        <v>521</v>
+        <v>848</v>
       </c>
       <c r="D50">
         <v>103.16817474365234</v>
@@ -47001,13 +47982,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B51">
         <v>2001</v>
       </c>
       <c r="C51" t="s">
-        <v>522</v>
+        <v>849</v>
       </c>
       <c r="D51">
         <v>103.16817474365234</v>
@@ -47122,13 +48103,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B52">
         <v>2002</v>
       </c>
       <c r="C52" t="s">
-        <v>523</v>
+        <v>850</v>
       </c>
       <c r="D52">
         <v>103.16817474365234</v>
@@ -47243,13 +48224,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B53">
         <v>2003</v>
       </c>
       <c r="C53" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
       <c r="D53">
         <v>103.16817474365234</v>
@@ -47364,13 +48345,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B54">
         <v>2004</v>
       </c>
       <c r="C54" t="s">
-        <v>525</v>
+        <v>852</v>
       </c>
       <c r="D54">
         <v>103.16817474365234</v>
@@ -47485,13 +48466,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B55">
         <v>2005</v>
       </c>
       <c r="C55" t="s">
-        <v>526</v>
+        <v>853</v>
       </c>
       <c r="D55">
         <v>103.16817474365234</v>
@@ -47606,13 +48587,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B56">
         <v>2006</v>
       </c>
       <c r="C56" t="s">
-        <v>527</v>
+        <v>854</v>
       </c>
       <c r="D56">
         <v>103.16817474365234</v>
@@ -47727,13 +48708,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B57">
         <v>2007</v>
       </c>
       <c r="C57" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D57">
         <v>108.84059143066406</v>
@@ -47900,13 +48881,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B58">
         <v>2008</v>
       </c>
       <c r="C58" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D58">
         <v>108.44422149658203</v>
@@ -48069,13 +49050,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B59">
         <v>2009</v>
       </c>
       <c r="C59" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D59">
         <v>118.60659790039063</v>
@@ -48238,13 +49219,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B60">
         <v>2010</v>
       </c>
       <c r="C60" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D60">
         <v>109.92964172363281</v>
@@ -48407,13 +49388,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B61">
         <v>2011</v>
       </c>
       <c r="C61" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D61">
         <v>103.17209625244141</v>
@@ -48576,13 +49557,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B62">
         <v>2012</v>
       </c>
       <c r="C62" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D62">
         <v>109.32874298095703</v>
@@ -48745,13 +49726,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B63">
         <v>2013</v>
       </c>
       <c r="C63" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D63">
         <v>110.40555572509766</v>
@@ -48914,13 +49895,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B64">
         <v>2014</v>
       </c>
       <c r="C64" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D64">
         <v>106.59972381591797</v>
@@ -49083,13 +50064,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B65">
         <v>2015</v>
       </c>
       <c r="C65" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D65">
         <v>107.19830322265625</v>
@@ -49252,13 +50233,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B66">
         <v>2016</v>
       </c>
       <c r="C66" t="s">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="D66">
         <v>108.48361968994141</v>
@@ -49421,13 +50402,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B67">
         <v>2017</v>
       </c>
       <c r="C67" t="s">
-        <v>529</v>
+        <v>856</v>
       </c>
       <c r="D67">
         <v>103.56272888183594</v>
@@ -49576,13 +50557,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B68">
         <v>2018</v>
       </c>
       <c r="C68" t="s">
-        <v>529</v>
+        <v>856</v>
       </c>
       <c r="D68">
         <v>101.234375</v>
@@ -49731,13 +50712,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B69">
         <v>2019</v>
       </c>
       <c r="C69" t="s">
-        <v>529</v>
+        <v>856</v>
       </c>
       <c r="D69">
         <v>100.44290161132813</v>
@@ -49886,13 +50867,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B70">
         <v>2020</v>
       </c>
       <c r="C70" t="s">
-        <v>529</v>
+        <v>856</v>
       </c>
       <c r="D70">
         <v>82.097969055175781</v>
@@ -50041,13 +51022,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B71">
         <v>2021</v>
       </c>
       <c r="C71" t="s">
-        <v>529</v>
+        <v>856</v>
       </c>
       <c r="D71">
         <v>86.932258605957031</v>
@@ -50196,13 +51177,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B72">
         <v>2022</v>
       </c>
       <c r="C72" t="s">
-        <v>529</v>
+        <v>856</v>
       </c>
       <c r="D72">
         <v>91.915298461914063</v>
@@ -50351,13 +51332,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>494</v>
+        <v>821</v>
       </c>
       <c r="B73">
         <v>2023</v>
       </c>
       <c r="C73" t="s">
-        <v>529</v>
+        <v>856</v>
       </c>
       <c r="D73">
         <v>96.664375305175781</v>
@@ -50506,13 +51487,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B74">
         <v>2000</v>
       </c>
       <c r="C74" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D74">
         <v>85.666969299316406</v>
@@ -50635,13 +51616,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B75">
         <v>2001</v>
       </c>
       <c r="C75" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D75">
         <v>85.666969299316406</v>
@@ -50764,13 +51745,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B76">
         <v>2002</v>
       </c>
       <c r="C76" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D76">
         <v>85.666969299316406</v>
@@ -50893,13 +51874,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B77">
         <v>2003</v>
       </c>
       <c r="C77" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D77">
         <v>85.666969299316406</v>
@@ -51022,13 +52003,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B78">
         <v>2004</v>
       </c>
       <c r="C78" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D78">
         <v>85.666969299316406</v>
@@ -51151,13 +52132,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B79">
         <v>2005</v>
       </c>
       <c r="C79" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D79">
         <v>85.666969299316406</v>
@@ -51280,13 +52261,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B80">
         <v>2006</v>
       </c>
       <c r="C80" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D80">
         <v>85.666969299316406</v>
@@ -51397,13 +52378,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B81">
         <v>2007</v>
       </c>
       <c r="C81" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D81">
         <v>85.666969299316406</v>
@@ -51522,13 +52503,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B82">
         <v>2008</v>
       </c>
       <c r="C82" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D82">
         <v>85.666969299316406</v>
@@ -51647,13 +52628,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B83">
         <v>2009</v>
       </c>
       <c r="C83" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D83">
         <v>85.666969299316406</v>
@@ -51772,13 +52753,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B84">
         <v>2010</v>
       </c>
       <c r="C84" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D84">
         <v>85.666969299316406</v>
@@ -51897,13 +52878,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B85">
         <v>2011</v>
       </c>
       <c r="C85" t="s">
-        <v>530</v>
+        <v>857</v>
       </c>
       <c r="D85">
         <v>85.666969299316406</v>
@@ -52022,13 +53003,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B86">
         <v>2012</v>
       </c>
       <c r="C86" t="s">
-        <v>531</v>
+        <v>858</v>
       </c>
       <c r="D86">
         <v>80.92169189453125</v>
@@ -52173,13 +53154,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B87">
         <v>2013</v>
       </c>
       <c r="C87" t="s">
-        <v>532</v>
+        <v>859</v>
       </c>
       <c r="D87">
         <v>85.666969299316406</v>
@@ -52298,13 +53279,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B88">
         <v>2014</v>
       </c>
       <c r="C88" t="s">
-        <v>532</v>
+        <v>859</v>
       </c>
       <c r="D88">
         <v>85.666969299316406</v>
@@ -52423,13 +53404,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B89">
         <v>2015</v>
       </c>
       <c r="C89" t="s">
-        <v>532</v>
+        <v>859</v>
       </c>
       <c r="D89">
         <v>85.666969299316406</v>
@@ -52548,13 +53529,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B90">
         <v>2016</v>
       </c>
       <c r="C90" t="s">
-        <v>533</v>
+        <v>860</v>
       </c>
       <c r="D90">
         <v>88.003005981445313</v>
@@ -52699,13 +53680,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B91">
         <v>2017</v>
       </c>
       <c r="C91" t="s">
-        <v>533</v>
+        <v>860</v>
       </c>
       <c r="D91">
         <v>88.893211364746094</v>
@@ -52850,13 +53831,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B92">
         <v>2018</v>
       </c>
       <c r="C92" t="s">
-        <v>533</v>
+        <v>860</v>
       </c>
       <c r="D92">
         <v>87.752304077148438</v>
@@ -53001,13 +53982,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B93">
         <v>2019</v>
       </c>
       <c r="C93" t="s">
-        <v>533</v>
+        <v>860</v>
       </c>
       <c r="D93">
         <v>84.65826416015625</v>
@@ -53152,13 +54133,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B94">
         <v>2020</v>
       </c>
       <c r="C94" t="s">
-        <v>533</v>
+        <v>860</v>
       </c>
       <c r="D94">
         <v>85.936622619628906</v>
@@ -53303,13 +54284,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B95">
         <v>2021</v>
       </c>
       <c r="C95" t="s">
-        <v>533</v>
+        <v>860</v>
       </c>
       <c r="D95">
         <v>83.503662109375</v>
@@ -53454,13 +54435,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B96">
         <v>2022</v>
       </c>
       <c r="C96" t="s">
-        <v>534</v>
+        <v>861</v>
       </c>
       <c r="D96">
         <v>83.503662109375</v>
@@ -53575,13 +54556,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>495</v>
+        <v>822</v>
       </c>
       <c r="B97">
         <v>2023</v>
       </c>
       <c r="C97" t="s">
-        <v>535</v>
+        <v>862</v>
       </c>
       <c r="D97">
         <v>83.503662109375</v>
@@ -53696,13 +54677,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B98">
         <v>2000</v>
       </c>
       <c r="C98" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D98">
         <v>84.725067138671875</v>
@@ -53815,13 +54796,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B99">
         <v>2001</v>
       </c>
       <c r="C99" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D99">
         <v>90.297988891601563</v>
@@ -53944,13 +54925,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B100">
         <v>2002</v>
       </c>
       <c r="C100" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D100">
         <v>84.725067138671875</v>
@@ -54063,13 +55044,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B101">
         <v>2003</v>
       </c>
       <c r="C101" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D101">
         <v>88.232711791992188</v>
@@ -54192,13 +55173,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B102">
         <v>2004</v>
       </c>
       <c r="C102" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D102">
         <v>84.725067138671875</v>
@@ -54311,13 +55292,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B103">
         <v>2005</v>
       </c>
       <c r="C103" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D103">
         <v>86.561241149902344</v>
@@ -54440,13 +55421,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B104">
         <v>2006</v>
       </c>
       <c r="C104" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D104">
         <v>84.445571899414063</v>
@@ -54569,13 +55550,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B105">
         <v>2007</v>
       </c>
       <c r="C105" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D105">
         <v>87.504539489746094</v>
@@ -54698,13 +55679,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B106">
         <v>2008</v>
       </c>
       <c r="C106" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D106">
         <v>87.93609619140625</v>
@@ -54827,13 +55808,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B107">
         <v>2009</v>
       </c>
       <c r="C107" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D107">
         <v>91.534172058105469</v>
@@ -54956,13 +55937,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B108">
         <v>2010</v>
       </c>
       <c r="C108" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D108">
         <v>83.492057800292969</v>
@@ -55085,13 +56066,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B109">
         <v>2011</v>
       </c>
       <c r="C109" t="s">
-        <v>536</v>
+        <v>863</v>
       </c>
       <c r="D109">
         <v>84.709579467773438</v>
@@ -55214,13 +56195,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B110">
         <v>2012</v>
       </c>
       <c r="C110" t="s">
-        <v>537</v>
+        <v>864</v>
       </c>
       <c r="D110">
         <v>88.235038757324219</v>
@@ -55387,13 +56368,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B111">
         <v>2013</v>
       </c>
       <c r="C111" t="s">
-        <v>537</v>
+        <v>864</v>
       </c>
       <c r="D111">
         <v>86.938751220703125</v>
@@ -55560,13 +56541,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B112">
         <v>2014</v>
       </c>
       <c r="C112" t="s">
-        <v>537</v>
+        <v>864</v>
       </c>
       <c r="D112">
         <v>87.489273071289063</v>
@@ -55733,13 +56714,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B113">
         <v>2015</v>
       </c>
       <c r="C113" t="s">
-        <v>537</v>
+        <v>864</v>
       </c>
       <c r="D113">
         <v>83.576515197753906</v>
@@ -55906,13 +56887,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B114">
         <v>2016</v>
       </c>
       <c r="C114" t="s">
-        <v>538</v>
+        <v>865</v>
       </c>
       <c r="D114">
         <v>83.4117431640625</v>
@@ -56061,13 +57042,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B115">
         <v>2017</v>
       </c>
       <c r="C115" t="s">
-        <v>538</v>
+        <v>865</v>
       </c>
       <c r="D115">
         <v>84.725067138671875</v>
@@ -56186,13 +57167,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B116">
         <v>2018</v>
       </c>
       <c r="C116" t="s">
-        <v>538</v>
+        <v>865</v>
       </c>
       <c r="D116">
         <v>81.453964233398438</v>
@@ -56341,13 +57322,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B117">
         <v>2019</v>
       </c>
       <c r="C117" t="s">
-        <v>538</v>
+        <v>865</v>
       </c>
       <c r="D117">
         <v>80.349822998046875</v>
@@ -56496,13 +57477,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B118">
         <v>2020</v>
       </c>
       <c r="C118" t="s">
-        <v>538</v>
+        <v>865</v>
       </c>
       <c r="D118">
         <v>69.684257507324219</v>
@@ -56651,13 +57632,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B119">
         <v>2021</v>
       </c>
       <c r="C119" t="s">
-        <v>538</v>
+        <v>865</v>
       </c>
       <c r="D119">
         <v>79.197860717773438</v>
@@ -56806,13 +57787,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B120">
         <v>2022</v>
       </c>
       <c r="C120" t="s">
-        <v>539</v>
+        <v>866</v>
       </c>
       <c r="D120">
         <v>79.197860717773438</v>
@@ -56927,13 +57908,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>496</v>
+        <v>823</v>
       </c>
       <c r="B121">
         <v>2023</v>
       </c>
       <c r="C121" t="s">
-        <v>540</v>
+        <v>867</v>
       </c>
       <c r="D121">
         <v>79.197860717773438</v>
@@ -57048,13 +58029,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B122">
         <v>2000</v>
       </c>
       <c r="C122" t="s">
-        <v>541</v>
+        <v>868</v>
       </c>
       <c r="D122">
         <v>76.655418395996094</v>
@@ -57163,13 +58144,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B123">
         <v>2001</v>
       </c>
       <c r="C123" t="s">
-        <v>541</v>
+        <v>868</v>
       </c>
       <c r="D123">
         <v>76.655418395996094</v>
@@ -57284,13 +58265,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B124">
         <v>2002</v>
       </c>
       <c r="C124" t="s">
-        <v>541</v>
+        <v>868</v>
       </c>
       <c r="D124">
         <v>76.655418395996094</v>
@@ -57399,13 +58380,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B125">
         <v>2003</v>
       </c>
       <c r="C125" t="s">
-        <v>541</v>
+        <v>868</v>
       </c>
       <c r="D125">
         <v>76.655418395996094</v>
@@ -57520,13 +58501,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B126">
         <v>2004</v>
       </c>
       <c r="C126" t="s">
-        <v>541</v>
+        <v>868</v>
       </c>
       <c r="D126">
         <v>76.655418395996094</v>
@@ -57635,13 +58616,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B127">
         <v>2005</v>
       </c>
       <c r="C127" t="s">
-        <v>541</v>
+        <v>868</v>
       </c>
       <c r="D127">
         <v>76.655418395996094</v>
@@ -57756,13 +58737,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B128">
         <v>2006</v>
       </c>
       <c r="C128" t="s">
-        <v>541</v>
+        <v>868</v>
       </c>
       <c r="D128">
         <v>76.655418395996094</v>
@@ -57877,13 +58858,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B129">
         <v>2007</v>
       </c>
       <c r="C129" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D129">
         <v>85.791351318359375</v>
@@ -58034,13 +59015,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B130">
         <v>2008</v>
       </c>
       <c r="C130" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D130">
         <v>79.070480346679688</v>
@@ -58191,13 +59172,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B131">
         <v>2009</v>
       </c>
       <c r="C131" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D131">
         <v>76.637855529785156</v>
@@ -58348,13 +59329,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B132">
         <v>2010</v>
       </c>
       <c r="C132" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D132">
         <v>80.821647644042969</v>
@@ -58505,13 +59486,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B133">
         <v>2011</v>
       </c>
       <c r="C133" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D133">
         <v>74.784317016601563</v>
@@ -58662,13 +59643,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B134">
         <v>2012</v>
       </c>
       <c r="C134" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D134">
         <v>73.00701904296875</v>
@@ -58819,13 +59800,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B135">
         <v>2013</v>
       </c>
       <c r="C135" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D135">
         <v>78.041656494140625</v>
@@ -58976,13 +59957,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B136">
         <v>2014</v>
       </c>
       <c r="C136" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D136">
         <v>77.843711853027344</v>
@@ -59133,13 +60114,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B137">
         <v>2015</v>
       </c>
       <c r="C137" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D137">
         <v>81.9007568359375</v>
@@ -59290,13 +60271,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B138">
         <v>2016</v>
       </c>
       <c r="C138" t="s">
-        <v>542</v>
+        <v>869</v>
       </c>
       <c r="D138">
         <v>80.4532470703125</v>
@@ -59447,13 +60428,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B139">
         <v>2017</v>
       </c>
       <c r="C139" t="s">
-        <v>543</v>
+        <v>870</v>
       </c>
       <c r="D139">
         <v>76.636749267578125</v>
@@ -59590,13 +60571,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B140">
         <v>2018</v>
       </c>
       <c r="C140" t="s">
-        <v>543</v>
+        <v>870</v>
       </c>
       <c r="D140">
         <v>76.687026977539063</v>
@@ -59745,13 +60726,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B141">
         <v>2019</v>
       </c>
       <c r="C141" t="s">
-        <v>543</v>
+        <v>870</v>
       </c>
       <c r="D141">
         <v>73.977447509765625</v>
@@ -59900,13 +60881,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B142">
         <v>2020</v>
       </c>
       <c r="C142" t="s">
-        <v>543</v>
+        <v>870</v>
       </c>
       <c r="D142">
         <v>65.548591613769531</v>
@@ -60055,13 +61036,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B143">
         <v>2021</v>
       </c>
       <c r="C143" t="s">
-        <v>543</v>
+        <v>870</v>
       </c>
       <c r="D143">
         <v>72.408706665039063</v>
@@ -60210,13 +61191,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B144">
         <v>2022</v>
       </c>
       <c r="C144" t="s">
-        <v>543</v>
+        <v>870</v>
       </c>
       <c r="D144">
         <v>74.982261657714844</v>
@@ -60365,13 +61346,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>497</v>
+        <v>824</v>
       </c>
       <c r="B145">
         <v>2023</v>
       </c>
       <c r="C145" t="s">
-        <v>543</v>
+        <v>870</v>
       </c>
       <c r="D145">
         <v>74.549346923828125</v>
@@ -60520,13 +61501,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B146">
         <v>2000</v>
       </c>
       <c r="C146" t="s">
-        <v>544</v>
+        <v>871</v>
       </c>
       <c r="D146">
         <v>101.53324127197266</v>
@@ -60693,13 +61674,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B147">
         <v>2001</v>
       </c>
       <c r="C147" t="s">
-        <v>544</v>
+        <v>871</v>
       </c>
       <c r="D147">
         <v>95.162033081054688</v>
@@ -60842,13 +61823,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B148">
         <v>2002</v>
       </c>
       <c r="C148" t="s">
-        <v>545</v>
+        <v>872</v>
       </c>
       <c r="D148">
         <v>95.162033081054688</v>
@@ -60959,13 +61940,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B149">
         <v>2003</v>
       </c>
       <c r="C149" t="s">
-        <v>545</v>
+        <v>872</v>
       </c>
       <c r="D149">
         <v>90.761138916015625</v>
@@ -61108,13 +62089,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B150">
         <v>2004</v>
       </c>
       <c r="C150" t="s">
-        <v>545</v>
+        <v>872</v>
       </c>
       <c r="D150">
         <v>95.162033081054688</v>
@@ -61251,13 +62232,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B151">
         <v>2005</v>
       </c>
       <c r="C151" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D151">
         <v>95.162033081054688</v>
@@ -61394,13 +62375,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B152">
         <v>2006</v>
       </c>
       <c r="C152" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D152">
         <v>92.230690002441406</v>
@@ -61557,13 +62538,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B153">
         <v>2007</v>
       </c>
       <c r="C153" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D153">
         <v>95.162033081054688</v>
@@ -61700,13 +62681,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B154">
         <v>2008</v>
       </c>
       <c r="C154" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D154">
         <v>95.162033081054688</v>
@@ -61843,13 +62824,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B155">
         <v>2009</v>
       </c>
       <c r="C155" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D155">
         <v>88.0399169921875</v>
@@ -62006,13 +62987,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B156">
         <v>2010</v>
       </c>
       <c r="C156" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D156">
         <v>95.162033081054688</v>
@@ -62149,13 +63130,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B157">
         <v>2011</v>
       </c>
       <c r="C157" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D157">
         <v>90.334259033203125</v>
@@ -62312,13 +63293,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B158">
         <v>2012</v>
       </c>
       <c r="C158" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D158">
         <v>95.162033081054688</v>
@@ -62455,13 +63436,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B159">
         <v>2013</v>
       </c>
       <c r="C159" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D159">
         <v>98.433525085449219</v>
@@ -62618,13 +63599,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B160">
         <v>2014</v>
       </c>
       <c r="C160" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D160">
         <v>95.162033081054688</v>
@@ -62761,13 +63742,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B161">
         <v>2015</v>
       </c>
       <c r="C161" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D161">
         <v>98.970977783203125</v>
@@ -62924,13 +63905,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B162">
         <v>2016</v>
       </c>
       <c r="C162" t="s">
-        <v>546</v>
+        <v>873</v>
       </c>
       <c r="D162">
         <v>95.162033081054688</v>
@@ -63065,13 +64046,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B163">
         <v>2017</v>
       </c>
       <c r="C163" t="s">
-        <v>547</v>
+        <v>874</v>
       </c>
       <c r="D163">
         <v>98.95208740234375</v>
@@ -63214,13 +64195,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B164">
         <v>2018</v>
       </c>
       <c r="C164" t="s">
-        <v>547</v>
+        <v>874</v>
       </c>
       <c r="D164">
         <v>95.162033081054688</v>
@@ -63345,13 +64326,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B165">
         <v>2019</v>
       </c>
       <c r="C165" t="s">
-        <v>547</v>
+        <v>874</v>
       </c>
       <c r="D165">
         <v>95.162033081054688</v>
@@ -63476,13 +64457,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B166">
         <v>2020</v>
       </c>
       <c r="C166" t="s">
-        <v>547</v>
+        <v>874</v>
       </c>
       <c r="D166">
         <v>95.995048522949219</v>
@@ -63625,13 +64606,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B167">
         <v>2021</v>
       </c>
       <c r="C167" t="s">
-        <v>547</v>
+        <v>874</v>
       </c>
       <c r="D167">
         <v>95.162033081054688</v>
@@ -63756,13 +64737,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B168">
         <v>2022</v>
       </c>
       <c r="C168" t="s">
-        <v>547</v>
+        <v>874</v>
       </c>
       <c r="D168">
         <v>96.36944580078125</v>
@@ -63905,13 +64886,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>498</v>
+        <v>825</v>
       </c>
       <c r="B169">
         <v>2023</v>
       </c>
       <c r="C169" t="s">
-        <v>548</v>
+        <v>875</v>
       </c>
       <c r="D169">
         <v>96.36944580078125</v>
@@ -64020,13 +65001,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B170">
         <v>2000</v>
       </c>
       <c r="C170" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D170">
         <v>78.173255920410156</v>
@@ -64159,13 +65140,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B171">
         <v>2001</v>
       </c>
       <c r="C171" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D171">
         <v>84.881431579589844</v>
@@ -64322,13 +65303,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B172">
         <v>2002</v>
       </c>
       <c r="C172" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D172">
         <v>87.962692260742188</v>
@@ -64485,13 +65466,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B173">
         <v>2003</v>
       </c>
       <c r="C173" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D173">
         <v>83.578880310058594</v>
@@ -64648,13 +65629,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B174">
         <v>2004</v>
       </c>
       <c r="C174" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D174">
         <v>82.340003967285156</v>
@@ -64811,13 +65792,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B175">
         <v>2005</v>
       </c>
       <c r="C175" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D175">
         <v>83.268722534179688</v>
@@ -64974,13 +65955,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B176">
         <v>2006</v>
       </c>
       <c r="C176" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D176">
         <v>84.091545104980469</v>
@@ -65137,13 +66118,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B177">
         <v>2007</v>
       </c>
       <c r="C177" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D177">
         <v>82.198585510253906</v>
@@ -65300,13 +66281,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B178">
         <v>2008</v>
       </c>
       <c r="C178" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D178">
         <v>81.144363403320313</v>
@@ -65463,13 +66444,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B179">
         <v>2009</v>
       </c>
       <c r="C179" t="s">
-        <v>549</v>
+        <v>876</v>
       </c>
       <c r="D179">
         <v>77.614517211914063</v>
@@ -65626,13 +66607,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B180">
         <v>2010</v>
       </c>
       <c r="C180" t="s">
-        <v>550</v>
+        <v>877</v>
       </c>
       <c r="D180">
         <v>78.173255920410156</v>
@@ -65765,13 +66746,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B181">
         <v>2011</v>
       </c>
       <c r="C181" t="s">
-        <v>550</v>
+        <v>877</v>
       </c>
       <c r="D181">
         <v>75.505302429199219</v>
@@ -65928,13 +66909,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B182">
         <v>2012</v>
       </c>
       <c r="C182" t="s">
-        <v>550</v>
+        <v>877</v>
       </c>
       <c r="D182">
         <v>76.863693237304688</v>
@@ -66091,13 +67072,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B183">
         <v>2013</v>
       </c>
       <c r="C183" t="s">
-        <v>550</v>
+        <v>877</v>
       </c>
       <c r="D183">
         <v>74.90972900390625</v>
@@ -66254,13 +67235,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B184">
         <v>2014</v>
       </c>
       <c r="C184" t="s">
-        <v>550</v>
+        <v>877</v>
       </c>
       <c r="D184">
         <v>74.681007385253906</v>
@@ -66417,13 +67398,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B185">
         <v>2015</v>
       </c>
       <c r="C185" t="s">
-        <v>550</v>
+        <v>877</v>
       </c>
       <c r="D185">
         <v>73.565216064453125</v>
@@ -66580,13 +67561,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B186">
         <v>2016</v>
       </c>
       <c r="C186" t="s">
-        <v>551</v>
+        <v>878</v>
       </c>
       <c r="D186">
         <v>73.71392822265625</v>
@@ -66735,13 +67716,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B187">
         <v>2017</v>
       </c>
       <c r="C187" t="s">
-        <v>551</v>
+        <v>878</v>
       </c>
       <c r="D187">
         <v>72.37841796875</v>
@@ -66890,13 +67871,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B188">
         <v>2018</v>
       </c>
       <c r="C188" t="s">
-        <v>551</v>
+        <v>878</v>
       </c>
       <c r="D188">
         <v>73.861968994140625</v>
@@ -67045,13 +68026,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B189">
         <v>2019</v>
       </c>
       <c r="C189" t="s">
-        <v>551</v>
+        <v>878</v>
       </c>
       <c r="D189">
         <v>75.992515563964844</v>
@@ -67200,13 +68181,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B190">
         <v>2020</v>
       </c>
       <c r="C190" t="s">
-        <v>551</v>
+        <v>878</v>
       </c>
       <c r="D190">
         <v>73.624649047851563</v>
@@ -67355,13 +68336,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B191">
         <v>2021</v>
       </c>
       <c r="C191" t="s">
-        <v>551</v>
+        <v>878</v>
       </c>
       <c r="D191">
         <v>71.287971496582031</v>
@@ -67510,13 +68491,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B192">
         <v>2022</v>
       </c>
       <c r="C192" t="s">
-        <v>552</v>
+        <v>879</v>
       </c>
       <c r="D192">
         <v>71.287971496582031</v>
@@ -67631,13 +68612,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>499</v>
+        <v>826</v>
       </c>
       <c r="B193">
         <v>2023</v>
       </c>
       <c r="C193" t="s">
-        <v>553</v>
+        <v>880</v>
       </c>
       <c r="D193">
         <v>71.287971496582031</v>
@@ -67752,13 +68733,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B194">
         <v>2000</v>
       </c>
       <c r="C194" t="s">
-        <v>554</v>
+        <v>881</v>
       </c>
       <c r="D194">
         <v>80.193367004394531</v>
@@ -67867,13 +68848,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B195">
         <v>2001</v>
       </c>
       <c r="C195" t="s">
-        <v>555</v>
+        <v>882</v>
       </c>
       <c r="D195">
         <v>80.193367004394531</v>
@@ -67988,13 +68969,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B196">
         <v>2002</v>
       </c>
       <c r="C196" t="s">
-        <v>556</v>
+        <v>883</v>
       </c>
       <c r="D196">
         <v>80.193367004394531</v>
@@ -68109,13 +69090,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B197">
         <v>2003</v>
       </c>
       <c r="C197" t="s">
-        <v>557</v>
+        <v>884</v>
       </c>
       <c r="D197">
         <v>80.193367004394531</v>
@@ -68230,13 +69211,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B198">
         <v>2004</v>
       </c>
       <c r="C198" t="s">
-        <v>558</v>
+        <v>885</v>
       </c>
       <c r="D198">
         <v>80.193367004394531</v>
@@ -68351,13 +69332,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B199">
         <v>2005</v>
       </c>
       <c r="C199" t="s">
-        <v>559</v>
+        <v>886</v>
       </c>
       <c r="D199">
         <v>80.193367004394531</v>
@@ -68472,13 +69453,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B200">
         <v>2006</v>
       </c>
       <c r="C200" t="s">
-        <v>560</v>
+        <v>887</v>
       </c>
       <c r="D200">
         <v>80.193367004394531</v>
@@ -68593,13 +69574,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B201">
         <v>2007</v>
       </c>
       <c r="C201" t="s">
-        <v>561</v>
+        <v>888</v>
       </c>
       <c r="D201">
         <v>80.193367004394531</v>
@@ -68714,13 +69695,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B202">
         <v>2008</v>
       </c>
       <c r="C202" t="s">
-        <v>562</v>
+        <v>889</v>
       </c>
       <c r="D202">
         <v>80.193367004394531</v>
@@ -68829,13 +69810,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B203">
         <v>2009</v>
       </c>
       <c r="C203" t="s">
-        <v>563</v>
+        <v>890</v>
       </c>
       <c r="D203">
         <v>80.193367004394531</v>
@@ -68950,13 +69931,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B204">
         <v>2010</v>
       </c>
       <c r="C204" t="s">
-        <v>564</v>
+        <v>891</v>
       </c>
       <c r="D204">
         <v>80.193367004394531</v>
@@ -69071,13 +70052,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B205">
         <v>2011</v>
       </c>
       <c r="C205" t="s">
-        <v>565</v>
+        <v>892</v>
       </c>
       <c r="D205">
         <v>80.193367004394531</v>
@@ -69186,13 +70167,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B206">
         <v>2012</v>
       </c>
       <c r="C206" t="s">
-        <v>566</v>
+        <v>893</v>
       </c>
       <c r="D206">
         <v>80.193367004394531</v>
@@ -69307,13 +70288,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B207">
         <v>2013</v>
       </c>
       <c r="C207" t="s">
-        <v>567</v>
+        <v>894</v>
       </c>
       <c r="D207">
         <v>80.193367004394531</v>
@@ -69428,13 +70409,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B208">
         <v>2014</v>
       </c>
       <c r="C208" t="s">
-        <v>568</v>
+        <v>895</v>
       </c>
       <c r="D208">
         <v>80.193367004394531</v>
@@ -69549,13 +70530,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B209">
         <v>2015</v>
       </c>
       <c r="C209" t="s">
-        <v>569</v>
+        <v>896</v>
       </c>
       <c r="D209">
         <v>80.193367004394531</v>
@@ -69670,13 +70651,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B210">
         <v>2016</v>
       </c>
       <c r="C210" t="s">
-        <v>570</v>
+        <v>897</v>
       </c>
       <c r="D210">
         <v>80.193367004394531</v>
@@ -69791,13 +70772,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B211">
         <v>2017</v>
       </c>
       <c r="C211" t="s">
-        <v>571</v>
+        <v>898</v>
       </c>
       <c r="D211">
         <v>80.193367004394531</v>
@@ -69912,13 +70893,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B212">
         <v>2018</v>
       </c>
       <c r="C212" t="s">
-        <v>572</v>
+        <v>899</v>
       </c>
       <c r="D212">
         <v>80.193367004394531</v>
@@ -70033,13 +71014,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B213">
         <v>2019</v>
       </c>
       <c r="C213" t="s">
-        <v>573</v>
+        <v>900</v>
       </c>
       <c r="D213">
         <v>80.193367004394531</v>
@@ -70154,13 +71135,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B214">
         <v>2020</v>
       </c>
       <c r="C214" t="s">
-        <v>574</v>
+        <v>901</v>
       </c>
       <c r="D214">
         <v>80.193367004394531</v>
@@ -70275,13 +71256,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B215">
         <v>2021</v>
       </c>
       <c r="C215" t="s">
-        <v>575</v>
+        <v>902</v>
       </c>
       <c r="D215">
         <v>80.193367004394531</v>
@@ -70396,13 +71377,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B216">
         <v>2022</v>
       </c>
       <c r="C216" t="s">
-        <v>576</v>
+        <v>903</v>
       </c>
       <c r="D216">
         <v>80.193367004394531</v>
@@ -70517,13 +71498,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>500</v>
+        <v>827</v>
       </c>
       <c r="B217">
         <v>2023</v>
       </c>
       <c r="C217" t="s">
-        <v>577</v>
+        <v>904</v>
       </c>
       <c r="D217">
         <v>80.193367004394531</v>
@@ -70638,13 +71619,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B218">
         <v>2000</v>
       </c>
       <c r="C218" t="s">
-        <v>578</v>
+        <v>905</v>
       </c>
       <c r="D218">
         <v>59.057159423828125</v>
@@ -70811,13 +71792,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B219">
         <v>2001</v>
       </c>
       <c r="C219" t="s">
-        <v>578</v>
+        <v>905</v>
       </c>
       <c r="D219">
         <v>77.926979064941406</v>
@@ -70960,13 +71941,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B220">
         <v>2002</v>
       </c>
       <c r="C220" t="s">
-        <v>578</v>
+        <v>905</v>
       </c>
       <c r="D220">
         <v>59.782558441162109</v>
@@ -71133,13 +72114,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B221">
         <v>2003</v>
       </c>
       <c r="C221" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D221">
         <v>77.926979064941406</v>
@@ -71282,13 +72263,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B222">
         <v>2004</v>
       </c>
       <c r="C222" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D222">
         <v>74.276649475097656</v>
@@ -71455,13 +72436,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B223">
         <v>2005</v>
       </c>
       <c r="C223" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D223">
         <v>77.926979064941406</v>
@@ -71604,13 +72585,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B224">
         <v>2006</v>
       </c>
       <c r="C224" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D224">
         <v>79.154541015625</v>
@@ -71777,13 +72758,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B225">
         <v>2007</v>
       </c>
       <c r="C225" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D225">
         <v>77.926979064941406</v>
@@ -71926,13 +72907,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B226">
         <v>2008</v>
       </c>
       <c r="C226" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D226">
         <v>77.819007873535156</v>
@@ -72099,13 +73080,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B227">
         <v>2009</v>
       </c>
       <c r="C227" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D227">
         <v>77.926979064941406</v>
@@ -72248,13 +73229,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B228">
         <v>2010</v>
       </c>
       <c r="C228" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D228">
         <v>82.92462158203125</v>
@@ -72421,13 +73402,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B229">
         <v>2011</v>
       </c>
       <c r="C229" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D229">
         <v>77.926979064941406</v>
@@ -72570,13 +73551,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B230">
         <v>2012</v>
       </c>
       <c r="C230" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D230">
         <v>80.075202941894531</v>
@@ -72743,13 +73724,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B231">
         <v>2013</v>
       </c>
       <c r="C231" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D231">
         <v>77.926979064941406</v>
@@ -72892,13 +73873,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B232">
         <v>2014</v>
       </c>
       <c r="C232" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D232">
         <v>83.916366577148438</v>
@@ -73065,13 +74046,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B233">
         <v>2015</v>
       </c>
       <c r="C233" t="s">
-        <v>579</v>
+        <v>906</v>
       </c>
       <c r="D233">
         <v>77.926979064941406</v>
@@ -73214,13 +74195,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B234">
         <v>2016</v>
       </c>
       <c r="C234" t="s">
-        <v>580</v>
+        <v>907</v>
       </c>
       <c r="D234">
         <v>86.420242309570313</v>
@@ -73369,13 +74350,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B235">
         <v>2017</v>
       </c>
       <c r="C235" t="s">
-        <v>580</v>
+        <v>907</v>
       </c>
       <c r="D235">
         <v>77.926979064941406</v>
@@ -73502,13 +74483,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B236">
         <v>2018</v>
       </c>
       <c r="C236" t="s">
-        <v>580</v>
+        <v>907</v>
       </c>
       <c r="D236">
         <v>85.915252685546875</v>
@@ -73657,13 +74638,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B237">
         <v>2019</v>
       </c>
       <c r="C237" t="s">
-        <v>580</v>
+        <v>907</v>
       </c>
       <c r="D237">
         <v>77.926979064941406</v>
@@ -73790,13 +74771,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B238">
         <v>2020</v>
       </c>
       <c r="C238" t="s">
-        <v>580</v>
+        <v>907</v>
       </c>
       <c r="D238">
         <v>85.886253356933594</v>
@@ -73945,13 +74926,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B239">
         <v>2021</v>
       </c>
       <c r="C239" t="s">
-        <v>580</v>
+        <v>907</v>
       </c>
       <c r="D239">
         <v>77.926979064941406</v>
@@ -74078,13 +75059,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B240">
         <v>2022</v>
       </c>
       <c r="C240" t="s">
-        <v>580</v>
+        <v>907</v>
       </c>
       <c r="D240">
         <v>79.895851135253906</v>
@@ -74233,13 +75214,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>501</v>
+        <v>828</v>
       </c>
       <c r="B241">
         <v>2023</v>
       </c>
       <c r="C241" t="s">
-        <v>581</v>
+        <v>908</v>
       </c>
       <c r="D241">
         <v>79.895851135253906</v>
@@ -74348,13 +75329,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B242">
         <v>2000</v>
       </c>
       <c r="C242" t="s">
-        <v>582</v>
+        <v>909</v>
       </c>
       <c r="D242">
         <v>59.037322998046875</v>
@@ -74469,13 +75450,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B243">
         <v>2001</v>
       </c>
       <c r="C243" t="s">
-        <v>583</v>
+        <v>910</v>
       </c>
       <c r="D243">
         <v>59.037322998046875</v>
@@ -74590,13 +75571,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B244">
         <v>2002</v>
       </c>
       <c r="C244" t="s">
-        <v>584</v>
+        <v>911</v>
       </c>
       <c r="D244">
         <v>59.037322998046875</v>
@@ -74711,13 +75692,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B245">
         <v>2003</v>
       </c>
       <c r="C245" t="s">
-        <v>585</v>
+        <v>912</v>
       </c>
       <c r="D245">
         <v>59.037322998046875</v>
@@ -74832,13 +75813,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B246">
         <v>2004</v>
       </c>
       <c r="C246" t="s">
-        <v>586</v>
+        <v>913</v>
       </c>
       <c r="D246">
         <v>59.037322998046875</v>
@@ -74953,13 +75934,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B247">
         <v>2005</v>
       </c>
       <c r="C247" t="s">
-        <v>587</v>
+        <v>914</v>
       </c>
       <c r="D247">
         <v>59.037322998046875</v>
@@ -75074,13 +76055,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B248">
         <v>2006</v>
       </c>
       <c r="C248" t="s">
-        <v>588</v>
+        <v>915</v>
       </c>
       <c r="D248">
         <v>59.037322998046875</v>
@@ -75195,13 +76176,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B249">
         <v>2007</v>
       </c>
       <c r="C249" t="s">
-        <v>589</v>
+        <v>916</v>
       </c>
       <c r="D249">
         <v>61.149925231933594</v>
@@ -75368,13 +76349,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B250">
         <v>2008</v>
       </c>
       <c r="C250" t="s">
-        <v>589</v>
+        <v>916</v>
       </c>
       <c r="D250">
         <v>61.386894226074219</v>
@@ -75541,13 +76522,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B251">
         <v>2009</v>
       </c>
       <c r="C251" t="s">
-        <v>589</v>
+        <v>916</v>
       </c>
       <c r="D251">
         <v>57.413516998291016</v>
@@ -75714,13 +76695,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B252">
         <v>2010</v>
       </c>
       <c r="C252" t="s">
-        <v>589</v>
+        <v>916</v>
       </c>
       <c r="D252">
         <v>56.061275482177734</v>
@@ -75887,13 +76868,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B253">
         <v>2011</v>
       </c>
       <c r="C253" t="s">
-        <v>589</v>
+        <v>916</v>
       </c>
       <c r="D253">
         <v>57.537090301513672</v>
@@ -76060,13 +77041,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B254">
         <v>2012</v>
       </c>
       <c r="C254" t="s">
-        <v>589</v>
+        <v>916</v>
       </c>
       <c r="D254">
         <v>61.454891204833984</v>
@@ -76233,13 +77214,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B255">
         <v>2013</v>
       </c>
       <c r="C255" t="s">
-        <v>589</v>
+        <v>916</v>
       </c>
       <c r="D255">
         <v>59.869579315185547</v>
@@ -76406,13 +77387,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B256">
         <v>2014</v>
       </c>
       <c r="C256" t="s">
-        <v>590</v>
+        <v>917</v>
       </c>
       <c r="D256">
         <v>57.285350799560547</v>
@@ -76561,13 +77542,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B257">
         <v>2015</v>
       </c>
       <c r="C257" t="s">
-        <v>590</v>
+        <v>917</v>
       </c>
       <c r="D257">
         <v>64.142227172851563</v>
@@ -76716,13 +77697,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B258">
         <v>2016</v>
       </c>
       <c r="C258" t="s">
-        <v>590</v>
+        <v>917</v>
       </c>
       <c r="D258">
         <v>54.072483062744141</v>
@@ -76871,13 +77852,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B259">
         <v>2017</v>
       </c>
       <c r="C259" t="s">
-        <v>591</v>
+        <v>918</v>
       </c>
       <c r="D259">
         <v>54.072483062744141</v>
@@ -76992,13 +77973,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B260">
         <v>2018</v>
       </c>
       <c r="C260" t="s">
-        <v>592</v>
+        <v>919</v>
       </c>
       <c r="D260">
         <v>54.072483062744141</v>
@@ -77113,13 +78094,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B261">
         <v>2019</v>
       </c>
       <c r="C261" t="s">
-        <v>593</v>
+        <v>920</v>
       </c>
       <c r="D261">
         <v>54.072483062744141</v>
@@ -77234,13 +78215,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B262">
         <v>2020</v>
       </c>
       <c r="C262" t="s">
-        <v>594</v>
+        <v>921</v>
       </c>
       <c r="D262">
         <v>54.072483062744141</v>
@@ -77355,13 +78336,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B263">
         <v>2021</v>
       </c>
       <c r="C263" t="s">
-        <v>595</v>
+        <v>922</v>
       </c>
       <c r="D263">
         <v>54.072483062744141</v>
@@ -77476,13 +78457,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B264">
         <v>2022</v>
       </c>
       <c r="C264" t="s">
-        <v>596</v>
+        <v>923</v>
       </c>
       <c r="D264">
         <v>54.072483062744141</v>
@@ -77597,13 +78578,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>502</v>
+        <v>829</v>
       </c>
       <c r="B265">
         <v>2023</v>
       </c>
       <c r="C265" t="s">
-        <v>597</v>
+        <v>924</v>
       </c>
       <c r="D265">
         <v>54.072483062744141</v>
